--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -7161,7 +7161,7 @@
     <t xml:space="preserve">Nihongo</t>
   </si>
   <si>
-    <t xml:space="preserve">but</t>
+    <t xml:space="preserve">pus</t>
   </si>
   <si>
     <t xml:space="preserve">vulgar now; use 'ak' for chest</t>
@@ -16074,11 +16074,11 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L323" activeCellId="0" sqref="L323"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A443" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D466" activeCellId="0" sqref="D466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.5"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -7164,7 +7164,7 @@
     <t xml:space="preserve">rom</t>
   </si>
   <si>
-    <t xml:space="preserve">vulgar now; use 'ak' for chest</t>
+    <t xml:space="preserve">suggestive now; use 'ak' for chest</t>
   </si>
   <si>
     <t xml:space="preserve">chest/breast/(colloquially) tit/tits</t>
@@ -7188,7 +7188,7 @@
     <t xml:space="preserve">niy kas</t>
   </si>
   <si>
-    <t xml:space="preserve">puskos</t>
+    <t xml:space="preserve">romkos</t>
   </si>
   <si>
     <t xml:space="preserve">sternum</t>
@@ -16077,11 +16077,11 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O319" activeCellId="0" sqref="O319"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A443" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E462" activeCellId="0" sqref="E462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.5"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -6185,7 +6185,7 @@
     <t xml:space="preserve">object/item/thing</t>
   </si>
   <si>
-    <t xml:space="preserve">get/attain/acquire/take/grab/download/claim/give (R)/hand over (R)/pass ®</t>
+    <t xml:space="preserve">get/attain/acquire/retrieve/take/grab/download/claim/give (R)/hand over (R)/pass (R)</t>
   </si>
   <si>
     <t xml:space="preserve">taken</t>
@@ -7827,7 +7827,7 @@
     <t xml:space="preserve">money/dollar/credit/payment/finance/value</t>
   </si>
   <si>
-    <t xml:space="preserve">buy/pay for/spend/afford</t>
+    <t xml:space="preserve">buy/pay for/spend/afford/get</t>
   </si>
   <si>
     <t xml:space="preserve">expensive/valuable/rich/financial</t>
@@ -9135,7 +9135,7 @@
     <t xml:space="preserve">reward/prize/gift</t>
   </si>
   <si>
-    <t xml:space="preserve">earn/deserve/get to/give (R) /reward ®</t>
+    <t xml:space="preserve">earn/deserve/get/get to/give (R) /reward ®</t>
   </si>
   <si>
     <t xml:space="preserve">earned/deserved/gifted/free</t>
@@ -14821,40 +14821,40 @@
     <t xml:space="preserve">/ˈjɛl.oʊ/</t>
   </si>
   <si>
-    <t xml:space="preserve">yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see ‘mekyet’ for when differentiating ‘read’ and ‘write’ is super important; or simply say ‘meko yeta ko'</t>
+    <t xml:space="preserve">xiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see ‘rixiy’ for when differentiating ‘read’ and ‘write’ is super important; or simply say ‘rixo xiya ko'</t>
   </si>
   <si>
     <t xml:space="preserve">book/article/paper/writing/essay</t>
   </si>
   <si>
-    <t xml:space="preserve">read/write</t>
+    <t xml:space="preserve">write/read</t>
   </si>
   <si>
     <t xml:space="preserve">written</t>
   </si>
   <si>
-    <t xml:space="preserve">阅读</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuèdú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ɥɛ⁵¹ tu³⁵/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mekyet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">little slangy; ‘meko yeta ko’ considered more formal</t>
+    <t xml:space="preserve">写</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiě</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ɕi̯ɛ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rixiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">little slangy; ‘rixo xiya ko’ considered more formal</t>
   </si>
   <si>
     <t xml:space="preserve">write</t>
   </si>
   <si>
-    <t xml:space="preserve">mek yet</t>
+    <t xml:space="preserve">rix xiy</t>
   </si>
   <si>
     <t xml:space="preserve">yexin</t>
@@ -15232,7 +15232,7 @@
     <t xml:space="preserve">piyas</t>
   </si>
   <si>
-    <t xml:space="preserve">onion/garlic/shallot/scallion/bulb vegetable</t>
+    <t xml:space="preserve">onion/garlic/shallot/scallion/leek/bulb vegetable</t>
   </si>
   <si>
     <t xml:space="preserve">پیاز</t>
@@ -15410,7 +15410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -15537,7 +15537,7 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
     <font>
@@ -15547,6 +15547,12 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -15612,7 +15618,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15713,27 +15719,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15886,8 +15872,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E396" activeCellId="0" sqref="E396"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A970" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O999" activeCellId="0" sqref="O999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40028,20 +40014,15 @@
       <c r="A986" s="0" t="s">
         <v>4840</v>
       </c>
-      <c r="B986" s="25"/>
-      <c r="C986" s="25" t="s">
+      <c r="C986" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D986" s="25" t="s">
+      <c r="D986" s="0" t="s">
         <v>4841</v>
       </c>
-      <c r="E986" s="25" t="s">
+      <c r="E986" s="0" t="s">
         <v>4842</v>
       </c>
-      <c r="F986" s="25"/>
-      <c r="G986" s="25"/>
-      <c r="H986" s="25"/>
-      <c r="I986" s="25"/>
       <c r="J986" s="0" t="s">
         <v>81</v>
       </c>
@@ -40056,398 +40037,304 @@
       </c>
     </row>
     <row r="987" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="25" t="s">
+      <c r="A987" s="0" t="s">
         <v>4844</v>
       </c>
-      <c r="B987" s="25"/>
-      <c r="C987" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D987" s="25"/>
-      <c r="E987" s="25" t="s">
+      <c r="C987" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E987" s="0" t="s">
         <v>4845</v>
       </c>
-      <c r="F987" s="25"/>
-      <c r="G987" s="25"/>
-      <c r="H987" s="25"/>
-      <c r="I987" s="25"/>
-      <c r="J987" s="25"/>
-      <c r="K987" s="25"/>
-      <c r="L987" s="25"/>
-      <c r="M987" s="25" t="s">
+      <c r="M987" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="N987" s="26" t="s">
+      <c r="N987" s="9" t="s">
         <v>4846</v>
       </c>
-      <c r="O987" s="27" t="s">
+      <c r="O987" s="12" t="s">
         <v>4847</v>
       </c>
-      <c r="P987" s="25" t="s">
+      <c r="P987" s="0" t="s">
         <v>4848</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="25" t="s">
+      <c r="A988" s="0" t="s">
         <v>4849</v>
       </c>
-      <c r="B988" s="25"/>
-      <c r="C988" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D988" s="25"/>
-      <c r="E988" s="25" t="s">
+      <c r="C988" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E988" s="0" t="s">
         <v>4850</v>
       </c>
-      <c r="F988" s="25"/>
-      <c r="G988" s="25" t="s">
+      <c r="G988" s="0" t="s">
         <v>2814</v>
       </c>
-      <c r="H988" s="25"/>
-      <c r="I988" s="25"/>
-      <c r="J988" s="25" t="s">
+      <c r="J988" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="K988" s="25"/>
-      <c r="L988" s="25"/>
-      <c r="M988" s="25" t="s">
+      <c r="M988" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N988" s="26" t="s">
+      <c r="N988" s="9" t="s">
         <v>4851</v>
       </c>
-      <c r="O988" s="25" t="s">
+      <c r="O988" s="0" t="s">
         <v>4852</v>
       </c>
-      <c r="P988" s="25" t="s">
+      <c r="P988" s="0" t="s">
         <v>4853</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="25" t="s">
+      <c r="A989" s="0" t="s">
         <v>4854</v>
       </c>
-      <c r="B989" s="25"/>
-      <c r="C989" s="25" t="s">
+      <c r="C989" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D989" s="25" t="s">
+      <c r="D989" s="0" t="s">
         <v>4855</v>
       </c>
-      <c r="E989" s="25" t="s">
+      <c r="E989" s="0" t="s">
         <v>4856</v>
       </c>
-      <c r="F989" s="25"/>
-      <c r="G989" s="25"/>
-      <c r="H989" s="25"/>
-      <c r="I989" s="25"/>
-      <c r="J989" s="25" t="s">
+      <c r="J989" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="K989" s="25"/>
-      <c r="L989" s="25" t="n">
+      <c r="L989" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="M989" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N989" s="25" t="s">
+      <c r="M989" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N989" s="0" t="s">
         <v>4857</v>
       </c>
-      <c r="O989" s="25"/>
-      <c r="P989" s="25"/>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="25" t="s">
+      <c r="A990" s="0" t="s">
         <v>4858</v>
       </c>
-      <c r="B990" s="25"/>
-      <c r="C990" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D990" s="25"/>
-      <c r="E990" s="25" t="s">
+      <c r="C990" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E990" s="0" t="s">
         <v>4859</v>
       </c>
-      <c r="F990" s="25" t="s">
+      <c r="F990" s="0" t="s">
         <v>4860</v>
       </c>
-      <c r="G990" s="25"/>
-      <c r="H990" s="25"/>
-      <c r="I990" s="25"/>
-      <c r="J990" s="25"/>
-      <c r="K990" s="25"/>
-      <c r="L990" s="25"/>
-      <c r="M990" s="25" t="s">
+      <c r="M990" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N990" s="25" t="s">
+      <c r="N990" s="0" t="s">
         <v>4861</v>
       </c>
-      <c r="O990" s="25"/>
-      <c r="P990" s="25" t="s">
+      <c r="P990" s="0" t="s">
         <v>4862</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="25" t="s">
+      <c r="A991" s="0" t="s">
         <v>4863</v>
       </c>
-      <c r="B991" s="25"/>
-      <c r="C991" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D991" s="25"/>
-      <c r="E991" s="25" t="s">
+      <c r="C991" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E991" s="0" t="s">
         <v>4864</v>
       </c>
-      <c r="F991" s="25"/>
-      <c r="G991" s="25" t="s">
+      <c r="G991" s="0" t="s">
         <v>4864</v>
       </c>
-      <c r="H991" s="25"/>
-      <c r="I991" s="25"/>
-      <c r="J991" s="25" t="s">
+      <c r="J991" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="K991" s="25"/>
-      <c r="L991" s="25" t="n">
+      <c r="L991" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M991" s="25" t="s">
+      <c r="M991" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="N991" s="25" t="s">
+      <c r="N991" s="0" t="s">
         <v>4864</v>
       </c>
-      <c r="O991" s="25"/>
-      <c r="P991" s="25" t="s">
+      <c r="P991" s="0" t="s">
         <v>4865</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="25" t="s">
+      <c r="A992" s="0" t="s">
         <v>4866</v>
       </c>
-      <c r="B992" s="25"/>
-      <c r="C992" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D992" s="28" t="s">
+      <c r="C992" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D992" s="5" t="s">
         <v>4867</v>
       </c>
-      <c r="E992" s="28" t="s">
+      <c r="E992" s="5" t="s">
         <v>4868</v>
       </c>
-      <c r="F992" s="28" t="s">
+      <c r="F992" s="5" t="s">
         <v>4869</v>
       </c>
-      <c r="G992" s="28" t="s">
+      <c r="G992" s="5" t="s">
         <v>4870</v>
       </c>
-      <c r="H992" s="25"/>
-      <c r="I992" s="25"/>
-      <c r="J992" s="25"/>
-      <c r="K992" s="28"/>
-      <c r="L992" s="28"/>
-      <c r="M992" s="28" t="s">
+      <c r="K992" s="5"/>
+      <c r="L992" s="5"/>
+      <c r="M992" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N992" s="26" t="s">
+      <c r="N992" s="25" t="s">
         <v>4871</v>
       </c>
-      <c r="O992" s="28" t="s">
+      <c r="O992" s="7" t="s">
         <v>4872</v>
       </c>
-      <c r="P992" s="28" t="s">
+      <c r="P992" s="7" t="s">
         <v>4873</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="25" t="s">
+      <c r="A993" s="0" t="s">
         <v>4874</v>
       </c>
-      <c r="B993" s="25"/>
-      <c r="C993" s="28"/>
-      <c r="D993" s="28" t="s">
+      <c r="C993" s="5"/>
+      <c r="D993" s="5" t="s">
         <v>4875</v>
       </c>
-      <c r="E993" s="28"/>
-      <c r="F993" s="28" t="s">
+      <c r="E993" s="5"/>
+      <c r="F993" s="5" t="s">
         <v>4876</v>
       </c>
-      <c r="G993" s="28"/>
-      <c r="H993" s="25"/>
-      <c r="I993" s="25"/>
-      <c r="J993" s="25"/>
-      <c r="K993" s="28"/>
-      <c r="L993" s="28"/>
-      <c r="M993" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="N993" s="26" t="s">
+      <c r="G993" s="5"/>
+      <c r="K993" s="5"/>
+      <c r="L993" s="5"/>
+      <c r="M993" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N993" s="9" t="s">
         <v>4877</v>
       </c>
-      <c r="O993" s="28"/>
-      <c r="P993" s="28"/>
+      <c r="O993" s="5"/>
+      <c r="P993" s="5"/>
     </row>
     <row r="994" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="25" t="s">
+      <c r="A994" s="0" t="s">
         <v>4878</v>
       </c>
-      <c r="B994" s="25"/>
-      <c r="C994" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D994" s="25"/>
-      <c r="E994" s="25" t="s">
+      <c r="C994" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E994" s="0" t="s">
         <v>4879</v>
       </c>
-      <c r="F994" s="25" t="s">
+      <c r="F994" s="0" t="s">
         <v>4880</v>
       </c>
-      <c r="G994" s="25"/>
-      <c r="H994" s="25"/>
-      <c r="I994" s="25"/>
-      <c r="J994" s="25"/>
-      <c r="K994" s="25"/>
-      <c r="L994" s="25"/>
-      <c r="M994" s="25" t="s">
+      <c r="M994" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N994" s="29" t="s">
+      <c r="N994" s="22" t="s">
         <v>4881</v>
       </c>
-      <c r="O994" s="30" t="s">
+      <c r="O994" s="7" t="s">
         <v>4882</v>
       </c>
-      <c r="P994" s="30" t="s">
+      <c r="P994" s="7" t="s">
         <v>4883</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="25" t="s">
+      <c r="A995" s="0" t="s">
         <v>4884</v>
       </c>
-      <c r="B995" s="25"/>
-      <c r="C995" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D995" s="25"/>
-      <c r="E995" s="25" t="s">
+      <c r="C995" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E995" s="0" t="s">
         <v>4885</v>
       </c>
-      <c r="F995" s="25" t="s">
+      <c r="F995" s="0" t="s">
         <v>4886</v>
       </c>
-      <c r="G995" s="25" t="s">
+      <c r="G995" s="0" t="s">
         <v>4887</v>
       </c>
-      <c r="H995" s="25"/>
-      <c r="I995" s="25"/>
-      <c r="J995" s="25"/>
-      <c r="K995" s="25"/>
-      <c r="L995" s="25"/>
-      <c r="M995" s="25" t="s">
+      <c r="M995" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N995" s="26" t="s">
+      <c r="N995" s="9" t="s">
         <v>4888</v>
       </c>
-      <c r="O995" s="30" t="s">
+      <c r="O995" s="7" t="s">
         <v>4889</v>
       </c>
-      <c r="P995" s="30" t="s">
+      <c r="P995" s="7" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="25" t="s">
+      <c r="A996" s="0" t="s">
         <v>4890</v>
       </c>
-      <c r="B996" s="25"/>
-      <c r="C996" s="25"/>
-      <c r="D996" s="25"/>
-      <c r="E996" s="25" t="s">
+      <c r="E996" s="0" t="s">
         <v>4891</v>
       </c>
-      <c r="F996" s="25"/>
-      <c r="G996" s="25"/>
-      <c r="H996" s="25"/>
-      <c r="I996" s="25"/>
-      <c r="J996" s="25"/>
-      <c r="K996" s="25"/>
-      <c r="L996" s="25"/>
-      <c r="M996" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N996" s="25" t="s">
+      <c r="M996" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N996" s="0" t="s">
         <v>4892</v>
       </c>
-      <c r="O996" s="25" t="s">
+      <c r="O996" s="0" t="s">
         <v>4893</v>
       </c>
-      <c r="P996" s="25"/>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="25" t="s">
+      <c r="A997" s="0" t="s">
         <v>4894</v>
       </c>
-      <c r="B997" s="25"/>
-      <c r="C997" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D997" s="25"/>
-      <c r="E997" s="25" t="s">
+      <c r="C997" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E997" s="0" t="s">
         <v>4895</v>
       </c>
-      <c r="F997" s="25"/>
-      <c r="G997" s="25"/>
-      <c r="H997" s="25"/>
-      <c r="I997" s="25"/>
-      <c r="J997" s="25" t="s">
+      <c r="J997" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="K997" s="25"/>
-      <c r="L997" s="25" t="n">
+      <c r="L997" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="M997" s="25" t="s">
+      <c r="M997" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="N997" s="25" t="s">
+      <c r="N997" s="0" t="s">
         <v>4896</v>
       </c>
-      <c r="O997" s="25"/>
-      <c r="P997" s="25" t="s">
+      <c r="P997" s="0" t="s">
         <v>4897</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="25" t="s">
+      <c r="A998" s="0" t="s">
         <v>4898</v>
       </c>
-      <c r="B998" s="25"/>
-      <c r="C998" s="25"/>
-      <c r="D998" s="25"/>
-      <c r="E998" s="25" t="s">
+      <c r="E998" s="0" t="s">
         <v>4899</v>
       </c>
-      <c r="F998" s="25"/>
-      <c r="G998" s="25"/>
-      <c r="H998" s="25"/>
-      <c r="I998" s="25"/>
-      <c r="J998" s="25"/>
-      <c r="K998" s="25"/>
-      <c r="L998" s="25"/>
-      <c r="M998" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N998" s="25" t="s">
+      <c r="M998" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N998" s="0" t="s">
         <v>4900</v>
       </c>
-      <c r="O998" s="25"/>
-      <c r="P998" s="25"/>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -6179,7 +6179,7 @@
     <t xml:space="preserve">muk</t>
   </si>
   <si>
-    <t xml:space="preserve">'give/pass/hand over’ require recipient; use ‘a tu’ if you don’t want to specify</t>
+    <t xml:space="preserve">Meaning 'give/pass/hand over’ require recipient; use ‘a tu’ if you don’t want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">object/item/thing</t>
@@ -9129,13 +9129,13 @@
     <t xml:space="preserve">pos</t>
   </si>
   <si>
-    <t xml:space="preserve">'gift/reward’ as a verb requires a recipient; use ‘a tu’ if you do not want to specify</t>
+    <t xml:space="preserve">Meaning 'gift/reward’ as a verb requires a recipient; use ‘a tu’ if you do not want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">reward/prize/gift</t>
   </si>
   <si>
-    <t xml:space="preserve">earn/deserve/get/get to/give (R) /reward ®</t>
+    <t xml:space="preserve">earn/deserve/get/get to/give (R) /reward (R)</t>
   </si>
   <si>
     <t xml:space="preserve">earned/deserved/gifted/free</t>
@@ -10035,7 +10035,7 @@
     <t xml:space="preserve">rix</t>
   </si>
   <si>
-    <t xml:space="preserve">'teach/train/etc’ require a recipient; use ‘a tu’ if you do not want to specify</t>
+    <t xml:space="preserve">Meaning 'teach/train/etc’ require a recipient; use ‘a tu’ if you do not want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">knowledge/fact/information/understanding/lesson/education</t>
@@ -14824,7 +14824,7 @@
     <t xml:space="preserve">xiy</t>
   </si>
   <si>
-    <t xml:space="preserve">see ‘rixiy’ for when differentiating ‘read’ and ‘write’ is super important; or simply say ‘rixo xiya ko'</t>
+    <t xml:space="preserve">see ‘rixiy’ for ‘read’ when differentiating ‘read’ and ‘write’ is super important; or simply say ‘rixo xiya ko'</t>
   </si>
   <si>
     <t xml:space="preserve">book/article/paper/writing/essay</t>
@@ -14851,7 +14851,7 @@
     <t xml:space="preserve">little slangy; ‘rixo xiya ko’ considered more formal</t>
   </si>
   <si>
-    <t xml:space="preserve">write</t>
+    <t xml:space="preserve">read</t>
   </si>
   <si>
     <t xml:space="preserve">rix xiy</t>
@@ -15410,7 +15410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -15534,13 +15534,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
@@ -15551,7 +15544,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -15618,7 +15611,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15711,15 +15704,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15872,8 +15861,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A970" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O999" activeCellId="0" sqref="O999"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E392" activeCellId="0" sqref="E392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37174,7 +37163,7 @@
       <c r="M874" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="N874" s="23" t="s">
+      <c r="N874" s="22" t="s">
         <v>4283</v>
       </c>
       <c r="O874" s="7" t="s">
@@ -37543,7 +37532,7 @@
       <c r="M889" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="N889" s="24" t="s">
+      <c r="N889" s="23" t="s">
         <v>4354</v>
       </c>
       <c r="O889" s="0" t="s">
@@ -40190,7 +40179,7 @@
       <c r="M992" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N992" s="25" t="s">
+      <c r="N992" s="24" t="s">
         <v>4871</v>
       </c>
       <c r="O992" s="7" t="s">

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">axrik</t>
   </si>
   <si>
-    <t xml:space="preserve">with -u ending; literally ‘good going’ basically</t>
+    <t xml:space="preserve">with -u ending; literally ‘good going' basically</t>
   </si>
   <si>
     <t xml:space="preserve">goodbye/bye</t>
@@ -1315,7 +1315,7 @@
     <t xml:space="preserve">ep</t>
   </si>
   <si>
-    <t xml:space="preserve">see ‘epun’ for conjunctions</t>
+    <t xml:space="preserve">see ‘epun' for conjunctions</t>
   </si>
   <si>
     <t xml:space="preserve">effect/result/outcome/crop/harvest</t>
@@ -1789,26 +1789,7 @@
     <t xml:space="preserve">Hankukatar</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">어 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">replaced with 'tar'</t>
-    </r>
+    <t xml:space="preserve">어 replaced with 'tar'</t>
   </si>
   <si>
     <t xml:space="preserve">Korean</t>
@@ -2879,7 +2860,7 @@
     <t xml:space="preserve">im</t>
   </si>
   <si>
-    <t xml:space="preserve">usually indicate direction of attraction with ‘ax’ for positive attraction and ‘kum’ for negative repulsion; sometimes colloquially use ‘mas’ and ‘tan’ instead</t>
+    <t xml:space="preserve">usually indicate direction of attraction with ‘ax' for positive attraction and ‘kum' for negative repulsion; sometimes colloquially use ‘mas' and ‘tan' instead</t>
   </si>
   <si>
     <t xml:space="preserve">magnet/attraction/repulsion</t>
@@ -3272,7 +3253,7 @@
     <t xml:space="preserve">ኢትዮጵያ</t>
   </si>
   <si>
-    <t xml:space="preserve">ītiyop’iya</t>
+    <t xml:space="preserve">ītiyop'iya</t>
   </si>
   <si>
     <t xml:space="preserve">/itijopʼja/</t>
@@ -3521,26 +3502,7 @@
     <t xml:space="preserve">Kantuntar</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">话 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">replaced with 'tar'</t>
-    </r>
+    <t xml:space="preserve">话 replaced with 'tar'</t>
   </si>
   <si>
     <t xml:space="preserve">Cantonese/Yue Chinese</t>
@@ -4350,7 +4312,7 @@
     <t xml:space="preserve">korur</t>
   </si>
   <si>
-    <t xml:space="preserve">use for apology to say ‘I wish I had not done it’ or ‘I wish I could undo it'</t>
+    <t xml:space="preserve">use for apology to say ‘I wish I had not done it' or ‘I wish I could undo it'</t>
   </si>
   <si>
     <t xml:space="preserve">regret</t>
@@ -4767,7 +4729,7 @@
     <t xml:space="preserve">kupem</t>
   </si>
   <si>
-    <t xml:space="preserve">'my condolences’ type of sorry</t>
+    <t xml:space="preserve">'my condolences' type of sorry</t>
   </si>
   <si>
     <t xml:space="preserve">sorry</t>
@@ -4779,7 +4741,7 @@
     <t xml:space="preserve">petx</t>
   </si>
   <si>
-    <t xml:space="preserve">slang swear; possibly mangled from 'peyxita' but no one’s sure</t>
+    <t xml:space="preserve">slang swear; possibly mangled from 'peyxita' but no one's sure</t>
   </si>
   <si>
     <t xml:space="preserve">ass</t>
@@ -5153,7 +5115,7 @@
     <t xml:space="preserve">mar</t>
   </si>
   <si>
-    <t xml:space="preserve">'kill’ requires a direct object; using ‘a ko’ is acceptable if you do not want to specify</t>
+    <t xml:space="preserve">'kill' requires a direct object; using ‘a ko' is acceptable if you do not want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">death</t>
@@ -6179,7 +6141,7 @@
     <t xml:space="preserve">muk</t>
   </si>
   <si>
-    <t xml:space="preserve">Meaning 'give/pass/hand over’ require recipient; use ‘a tu’ if you don’t want to specify</t>
+    <t xml:space="preserve">Meaning 'give/pass/hand over' require recipient; use ‘a tu' if you don't want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">object/item/thing</t>
@@ -6422,7 +6384,7 @@
     <t xml:space="preserve">nahon</t>
   </si>
   <si>
-    <t xml:space="preserve">quick way to say something is not belonging to someone or that they don’t have something</t>
+    <t xml:space="preserve">quick way to say something is not belonging to someone or that they don't have something</t>
   </si>
   <si>
     <t xml:space="preserve">not of</t>
@@ -6905,26 +6867,7 @@
     <t xml:space="preserve">Nihontar</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">語 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">replaced with 'tar'</t>
-    </r>
+    <t xml:space="preserve">語 replaced with 'tar'</t>
   </si>
   <si>
     <t xml:space="preserve">日本語</t>
@@ -7293,7 +7236,7 @@
     <t xml:space="preserve">non</t>
   </si>
   <si>
-    <t xml:space="preserve">slang; short form; quick way to say something is not belonging to someone or that they don’t have something</t>
+    <t xml:space="preserve">slang; short form; quick way to say something is not belonging to someone or that they don't have something</t>
   </si>
   <si>
     <t xml:space="preserve">nop</t>
@@ -9129,7 +9072,7 @@
     <t xml:space="preserve">pos</t>
   </si>
   <si>
-    <t xml:space="preserve">Meaning 'gift/reward’ as a verb requires a recipient; use ‘a tu’ if you do not want to specify</t>
+    <t xml:space="preserve">Meaning 'gift/reward' as a verb requires a recipient; use ‘a tu' if you do not want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">reward/prize/gift</t>
@@ -10035,7 +9978,7 @@
     <t xml:space="preserve">rix</t>
   </si>
   <si>
-    <t xml:space="preserve">Meaning 'teach/train/etc’ require a recipient; use ‘a tu’ if you do not want to specify</t>
+    <t xml:space="preserve">Meaning 'teach/train/etc' require a recipient; use ‘a tu' if you do not want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">knowledge/fact/information/understanding/lesson/education</t>
@@ -11373,7 +11316,7 @@
     <t xml:space="preserve">soxen</t>
   </si>
   <si>
-    <t xml:space="preserve">use for apology to say ‘I take responsibility for it’</t>
+    <t xml:space="preserve">use for apology to say ‘I take responsibility for it'</t>
   </si>
   <si>
     <t xml:space="preserve">duty/obligation/responsibility/liability</t>
@@ -14824,7 +14767,7 @@
     <t xml:space="preserve">xiy</t>
   </si>
   <si>
-    <t xml:space="preserve">see ‘rixiy’ for ‘read’ when differentiating ‘read’ and ‘write’ is super important; or simply say ‘rixo xiya ko'</t>
+    <t xml:space="preserve">see ‘rixiy' for ‘read' when differentiating ‘read' and ‘write' is super important; or simply say ‘rixo xiya ko'</t>
   </si>
   <si>
     <t xml:space="preserve">book/article/paper/writing/essay</t>
@@ -14848,7 +14791,7 @@
     <t xml:space="preserve">rixiy</t>
   </si>
   <si>
-    <t xml:space="preserve">little slangy; ‘rixo xiya ko’ considered more formal</t>
+    <t xml:space="preserve">little slangy; ‘rixo xiya ko' considered more formal</t>
   </si>
   <si>
     <t xml:space="preserve">read</t>
@@ -14965,7 +14908,7 @@
     <t xml:space="preserve">yon</t>
   </si>
   <si>
-    <t xml:space="preserve">meaning changed a lot since inception; dialect dependent; here it just means anything sexual down there that’s not your dick/clit</t>
+    <t xml:space="preserve">meaning changed a lot since inception; dialect dependent; here it just means anything sexual down there that's not your dick/clit</t>
   </si>
   <si>
     <t xml:space="preserve">vulva/scrotum/labia/taint/genital</t>
@@ -15370,7 +15313,7 @@
     <t xml:space="preserve">hamkom</t>
   </si>
   <si>
-    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est’ superlative meaning; best; tallest; fastest</t>
+    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est' superlative meaning; best; tallest; fastest</t>
   </si>
   <si>
     <t xml:space="preserve">superlative</t>
@@ -15382,7 +15325,7 @@
     <t xml:space="preserve">hamaskom</t>
   </si>
   <si>
-    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est’ superlative meaning that need to specify ‘most ___' or for extra emphatic ‘most ___est'; hottest; most attractive; most bestest</t>
+    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est' superlative meaning that need to specify ‘most ___' or for extra emphatic ‘most ___est'; hottest; most attractive; most bestest</t>
   </si>
   <si>
     <t xml:space="preserve">most/positive superlative</t>
@@ -15394,7 +15337,7 @@
     <t xml:space="preserve">hamikom</t>
   </si>
   <si>
-    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est’ superlative meaning that need to specify ‘least ___'; smallest; weakest; coldest; shortest</t>
+    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est' superlative meaning that need to specify ‘least ___'; smallest; weakest; coldest; shortest</t>
   </si>
   <si>
     <t xml:space="preserve">least/negative superlative</t>
@@ -15410,7 +15353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -15540,12 +15483,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -15708,7 +15645,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15861,8 +15798,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E392" activeCellId="0" sqref="E392"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A222" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J243" activeCellId="0" sqref="J243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41187,34 +41124,33 @@
     <hyperlink ref="O165" r:id="rId5" display="hūshǎn"/>
     <hyperlink ref="O183" r:id="rId6" display="yíng"/>
     <hyperlink ref="O217" r:id="rId7" display="gān"/>
-    <hyperlink ref="O265" r:id="rId8" display="kě'ài"/>
-    <hyperlink ref="O302" r:id="rId9" location="Mandarin" display="kǒngpà"/>
-    <hyperlink ref="O311" r:id="rId10" display="gùshi,"/>
-    <hyperlink ref="O324" r:id="rId11" display="màoxiǎn"/>
-    <hyperlink ref="O525" r:id="rId12" display="zuǒ "/>
-    <hyperlink ref="O530" r:id="rId13" display="pēntì"/>
-    <hyperlink ref="O532" r:id="rId14" display="fǎnyìng"/>
-    <hyperlink ref="O578" r:id="rId15" display="féi "/>
-    <hyperlink ref="O749" r:id="rId16" display="zǐjīn"/>
-    <hyperlink ref="O757" r:id="rId17" display="zérèn"/>
-    <hyperlink ref="O802" r:id="rId18" location="Mandarin" display="tàidù "/>
-    <hyperlink ref="O876" r:id="rId19" location="Mandarin" display="tóng"/>
-    <hyperlink ref="N889" r:id="rId20" location="Japanese" display="旨味"/>
-    <hyperlink ref="P928" r:id="rId21" display="/dʒe/"/>
-    <hyperlink ref="O942" r:id="rId22" display="xiūgǎi"/>
-    <hyperlink ref="O953" r:id="rId23" display="zhěnglǐ"/>
-    <hyperlink ref="O954" r:id="rId24" display="chéngdù"/>
-    <hyperlink ref="O955" r:id="rId25" location="Mandarin" display="shǒubì"/>
-    <hyperlink ref="O956" r:id="rId26" display="rèlì"/>
-    <hyperlink ref="O959" r:id="rId27" display="zhédié"/>
-    <hyperlink ref="O961" r:id="rId28" display="chuàngxīn"/>
-    <hyperlink ref="O994" r:id="rId29" display="yuèjīng"/>
-    <hyperlink ref="O995" r:id="rId30" display="yīn"/>
-    <hyperlink ref="O1005" r:id="rId31" location="Mandarin" display="yǒudiǎn "/>
-    <hyperlink ref="O1018" r:id="rId32" display="cháyè"/>
-    <hyperlink ref="O1021" r:id="rId33" location="Mandarin" display="sīchóu"/>
-    <hyperlink ref="O1027" r:id="rId34" display="bōli"/>
-    <hyperlink ref="O1028" r:id="rId35" display="táocí"/>
+    <hyperlink ref="O302" r:id="rId8" location="Mandarin" display="kǒngpà"/>
+    <hyperlink ref="O311" r:id="rId9" display="gùshi,"/>
+    <hyperlink ref="O324" r:id="rId10" display="màoxiǎn"/>
+    <hyperlink ref="O525" r:id="rId11" display="zuǒ "/>
+    <hyperlink ref="O530" r:id="rId12" display="pēntì"/>
+    <hyperlink ref="O532" r:id="rId13" display="fǎnyìng"/>
+    <hyperlink ref="O578" r:id="rId14" display="féi "/>
+    <hyperlink ref="O749" r:id="rId15" display="zǐjīn"/>
+    <hyperlink ref="O757" r:id="rId16" display="zérèn"/>
+    <hyperlink ref="O802" r:id="rId17" location="Mandarin" display="tàidù "/>
+    <hyperlink ref="O876" r:id="rId18" location="Mandarin" display="tóng"/>
+    <hyperlink ref="N889" r:id="rId19" location="Japanese" display="旨味"/>
+    <hyperlink ref="P928" r:id="rId20" display="/dʒe/"/>
+    <hyperlink ref="O942" r:id="rId21" display="xiūgǎi"/>
+    <hyperlink ref="O953" r:id="rId22" display="zhěnglǐ"/>
+    <hyperlink ref="O954" r:id="rId23" display="chéngdù"/>
+    <hyperlink ref="O955" r:id="rId24" location="Mandarin" display="shǒubì"/>
+    <hyperlink ref="O956" r:id="rId25" display="rèlì"/>
+    <hyperlink ref="O959" r:id="rId26" display="zhédié"/>
+    <hyperlink ref="O961" r:id="rId27" display="chuàngxīn"/>
+    <hyperlink ref="O994" r:id="rId28" display="yuèjīng"/>
+    <hyperlink ref="O995" r:id="rId29" display="yīn"/>
+    <hyperlink ref="O1005" r:id="rId30" location="Mandarin" display="yǒudiǎn "/>
+    <hyperlink ref="O1018" r:id="rId31" display="cháyè"/>
+    <hyperlink ref="O1021" r:id="rId32" location="Mandarin" display="sīchóu"/>
+    <hyperlink ref="O1027" r:id="rId33" display="bōli"/>
+    <hyperlink ref="O1028" r:id="rId34" display="táocí"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -41224,7 +41160,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">axrik</t>
   </si>
   <si>
-    <t xml:space="preserve">with -u ending; literally ‘good going' basically</t>
+    <t xml:space="preserve">with -u ending; literally 'good going' basically</t>
   </si>
   <si>
     <t xml:space="preserve">goodbye/bye</t>
@@ -1315,7 +1315,7 @@
     <t xml:space="preserve">ep</t>
   </si>
   <si>
-    <t xml:space="preserve">see ‘epun' for conjunctions</t>
+    <t xml:space="preserve">see 'epun' for conjunctions</t>
   </si>
   <si>
     <t xml:space="preserve">effect/result/outcome/crop/harvest</t>
@@ -2860,7 +2860,7 @@
     <t xml:space="preserve">im</t>
   </si>
   <si>
-    <t xml:space="preserve">usually indicate direction of attraction with ‘ax' for positive attraction and ‘kum' for negative repulsion; sometimes colloquially use ‘mas' and ‘tan' instead</t>
+    <t xml:space="preserve">usually indicate direction of attraction with 'ax' for positive attraction and 'kum' for negative repulsion; sometimes colloquially use 'mas' and 'tan' instead</t>
   </si>
   <si>
     <t xml:space="preserve">magnet/attraction/repulsion</t>
@@ -4312,7 +4312,7 @@
     <t xml:space="preserve">korur</t>
   </si>
   <si>
-    <t xml:space="preserve">use for apology to say ‘I wish I had not done it' or ‘I wish I could undo it'</t>
+    <t xml:space="preserve">use for apology to say 'I wish I had not done it' or 'I wish I could undo it'</t>
   </si>
   <si>
     <t xml:space="preserve">regret</t>
@@ -5115,7 +5115,7 @@
     <t xml:space="preserve">mar</t>
   </si>
   <si>
-    <t xml:space="preserve">'kill' requires a direct object; using ‘a ko' is acceptable if you do not want to specify</t>
+    <t xml:space="preserve">'kill' requires a direct object; using 'a ko' is acceptable if you do not want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">death</t>
@@ -6141,7 +6141,7 @@
     <t xml:space="preserve">muk</t>
   </si>
   <si>
-    <t xml:space="preserve">Meaning 'give/pass/hand over' require recipient; use ‘a tu' if you don't want to specify</t>
+    <t xml:space="preserve">Meaning 'give/pass/hand over' require recipient; use 'a tu' if you don't want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">object/item/thing</t>
@@ -9072,7 +9072,7 @@
     <t xml:space="preserve">pos</t>
   </si>
   <si>
-    <t xml:space="preserve">Meaning 'gift/reward' as a verb requires a recipient; use ‘a tu' if you do not want to specify</t>
+    <t xml:space="preserve">Meaning 'gift/reward' as a verb requires a recipient; use 'a tu' if you do not want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">reward/prize/gift</t>
@@ -9978,7 +9978,7 @@
     <t xml:space="preserve">rix</t>
   </si>
   <si>
-    <t xml:space="preserve">Meaning 'teach/train/etc' require a recipient; use ‘a tu' if you do not want to specify</t>
+    <t xml:space="preserve">Meaning 'teach/train/etc' require a recipient; use 'a tu' if you do not want to specify</t>
   </si>
   <si>
     <t xml:space="preserve">knowledge/fact/information/understanding/lesson/education</t>
@@ -11316,7 +11316,7 @@
     <t xml:space="preserve">soxen</t>
   </si>
   <si>
-    <t xml:space="preserve">use for apology to say ‘I take responsibility for it'</t>
+    <t xml:space="preserve">use for apology to say 'I take responsibility for it'</t>
   </si>
   <si>
     <t xml:space="preserve">duty/obligation/responsibility/liability</t>
@@ -14767,7 +14767,7 @@
     <t xml:space="preserve">xiy</t>
   </si>
   <si>
-    <t xml:space="preserve">see ‘rixiy' for ‘read' when differentiating ‘read' and ‘write' is super important; or simply say ‘rixo xiya ko'</t>
+    <t xml:space="preserve">see 'rixiy' for 'read' when differentiating 'read' and 'write' is super important; or simply say 'rixo xiya ko'</t>
   </si>
   <si>
     <t xml:space="preserve">book/article/paper/writing/essay</t>
@@ -14791,7 +14791,7 @@
     <t xml:space="preserve">rixiy</t>
   </si>
   <si>
-    <t xml:space="preserve">little slangy; ‘rixo xiya ko' considered more formal</t>
+    <t xml:space="preserve">little slangy; 'rixo xiya ko' considered more formal</t>
   </si>
   <si>
     <t xml:space="preserve">read</t>
@@ -15313,7 +15313,7 @@
     <t xml:space="preserve">hamkom</t>
   </si>
   <si>
-    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est' superlative meaning; best; tallest; fastest</t>
+    <t xml:space="preserve">usually a prefix or adverb to add an '-est' superlative meaning; best; tallest; fastest</t>
   </si>
   <si>
     <t xml:space="preserve">superlative</t>
@@ -15325,7 +15325,7 @@
     <t xml:space="preserve">hamaskom</t>
   </si>
   <si>
-    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est' superlative meaning that need to specify ‘most ___' or for extra emphatic ‘most ___est'; hottest; most attractive; most bestest</t>
+    <t xml:space="preserve">usually a prefix or adverb to add an '-est' superlative meaning that need to specify 'most ___' or for extra emphatic 'most ___est'; hottest; most attractive; most bestest</t>
   </si>
   <si>
     <t xml:space="preserve">most/positive superlative</t>
@@ -15337,7 +15337,7 @@
     <t xml:space="preserve">hamikom</t>
   </si>
   <si>
-    <t xml:space="preserve">usually a prefix or adverb to add an ‘-est' superlative meaning that need to specify ‘least ___'; smallest; weakest; coldest; shortest</t>
+    <t xml:space="preserve">usually a prefix or adverb to add an '-est' superlative meaning that need to specify 'least ___'; smallest; weakest; coldest; shortest</t>
   </si>
   <si>
     <t xml:space="preserve">least/negative superlative</t>
@@ -15798,8 +15798,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A222" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J243" activeCellId="0" sqref="J243"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A308" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F318" activeCellId="0" sqref="F318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7563" uniqueCount="5101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7557" uniqueCount="5099">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -781,7 +781,7 @@
     <t xml:space="preserve">/t͡ɕin⁵⁵ d͡z̥z̩²/</t>
   </si>
   <si>
-    <t xml:space="preserve">Araten</t>
+    <t xml:space="preserve">Xinasten</t>
   </si>
   <si>
     <t xml:space="preserve">day of gold; unclear etymology; might be paired with Saturn and its rings; also it's usually payday</t>
@@ -793,7 +793,7 @@
     <t xml:space="preserve">week</t>
   </si>
   <si>
-    <t xml:space="preserve">arat ten</t>
+    <t xml:space="preserve">xinas ten</t>
   </si>
   <si>
     <t xml:space="preserve">Arhentinamur</t>
@@ -6681,7 +6681,7 @@
     <t xml:space="preserve">nine</t>
   </si>
   <si>
-    <t xml:space="preserve">/ˈnwebe/</t>
+    <t xml:space="preserve">nueve</t>
   </si>
   <si>
     <t xml:space="preserve">/nœf/</t>
@@ -15451,12 +15451,6 @@
     <t xml:space="preserve">/ʈ͡ʂʰu̯ɑŋ⁵⁵/</t>
   </si>
   <si>
-    <t xml:space="preserve">chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/t͡ʃokoˈlate/</t>
-  </si>
-  <si>
     <t xml:space="preserve">tomat</t>
   </si>
   <si>
@@ -15476,7 +15470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -15520,20 +15514,13 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -15678,7 +15665,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15727,6 +15714,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15739,11 +15730,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15755,7 +15746,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15767,15 +15758,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15932,8 +15915,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D194" activeCellId="0" sqref="D194"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A417" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N439" activeCellId="0" sqref="N439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34347,7 +34330,7 @@
       <c r="M755" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N755" s="23" t="s">
+      <c r="N755" s="9" t="s">
         <v>3749</v>
       </c>
       <c r="O755" s="7" t="s">
@@ -37206,7 +37189,7 @@
       <c r="M872" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="N872" s="23" t="s">
+      <c r="N872" s="9" t="s">
         <v>4276</v>
       </c>
       <c r="O872" s="7" t="s">
@@ -37575,7 +37558,7 @@
       <c r="M887" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="N887" s="24" t="s">
+      <c r="N887" s="23" t="s">
         <v>4347</v>
       </c>
       <c r="O887" s="0" t="s">
@@ -38452,7 +38435,7 @@
       <c r="M923" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="N923" s="23" t="s">
+      <c r="N923" s="9" t="s">
         <v>4517</v>
       </c>
       <c r="O923" s="7"/>
@@ -38860,7 +38843,7 @@
       <c r="M939" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N939" s="23" t="s">
+      <c r="N939" s="9" t="s">
         <v>4598</v>
       </c>
       <c r="O939" s="7" t="s">
@@ -39226,7 +39209,7 @@
       <c r="M952" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N952" s="23" t="s">
+      <c r="N952" s="9" t="s">
         <v>4673</v>
       </c>
       <c r="O952" s="7" t="s">
@@ -39365,7 +39348,7 @@
       <c r="M957" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N957" s="23" t="s">
+      <c r="N957" s="9" t="s">
         <v>4703</v>
       </c>
       <c r="O957" s="7" t="s">
@@ -40214,7 +40197,7 @@
       <c r="M990" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N990" s="25" t="s">
+      <c r="N990" s="24" t="s">
         <v>4864</v>
       </c>
       <c r="O990" s="7" t="s">
@@ -40264,7 +40247,7 @@
       <c r="M992" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N992" s="23" t="s">
+      <c r="N992" s="9" t="s">
         <v>4874</v>
       </c>
       <c r="O992" s="7" t="s">
@@ -40864,7 +40847,7 @@
       <c r="M1016" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N1016" s="23" t="s">
+      <c r="N1016" s="9" t="s">
         <v>4990</v>
       </c>
       <c r="O1016" s="7" t="s">
@@ -41392,10 +41375,10 @@
     </row>
     <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>4659</v>
+        <v>5095</v>
       </c>
       <c r="E1041" s="0" t="s">
-        <v>5095</v>
+        <v>5096</v>
       </c>
       <c r="J1041" s="0" t="s">
         <v>335</v>
@@ -41403,33 +41386,14 @@
       <c r="M1041" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N1041" s="6" t="s">
-        <v>5095</v>
+      <c r="N1041" s="0" t="s">
+        <v>5097</v>
       </c>
       <c r="P1041" s="7" t="s">
-        <v>5096</v>
-      </c>
-    </row>
-    <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="0" t="s">
-        <v>5097</v>
-      </c>
-      <c r="E1042" s="0" t="s">
         <v>5098</v>
       </c>
-      <c r="J1042" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="M1042" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1042" s="0" t="s">
-        <v>5099</v>
-      </c>
-      <c r="P1042" s="7" t="s">
-        <v>5100</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -5622,10 +5622,10 @@
     <t xml:space="preserve">mek</t>
   </si>
   <si>
-    <t xml:space="preserve">creation/establishment/invention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make/create/manufacture/establish/invent</t>
+    <t xml:space="preserve">creation/good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make/create/manufacture</t>
   </si>
   <si>
     <t xml:space="preserve">artificial</t>
@@ -14264,10 +14264,10 @@
     <t xml:space="preserve">inxiniy</t>
   </si>
   <si>
-    <t xml:space="preserve">innovation/creativity/originality/design/ingenuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innovate/create/design</t>
+    <t xml:space="preserve">innovation/creativity/originality/design/ingenuity/invention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innovate/create/design/invent/establish</t>
   </si>
   <si>
     <t xml:space="preserve">creative/innovative/original/seminal/ingenious</t>
@@ -15918,8 +15918,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F254" activeCellId="0" sqref="F254"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A345" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F367" activeCellId="0" sqref="F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7607" uniqueCount="5150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7636" uniqueCount="5170">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -6282,7 +6282,7 @@
     <t xml:space="preserve">mut</t>
   </si>
   <si>
-    <t xml:space="preserve">purpose/mission/objective/task/goal/achievement/victory/success</t>
+    <t xml:space="preserve">purpose/mission/objective/task/goal/achievement/victory/success/destination</t>
   </si>
   <si>
     <t xml:space="preserve">achieve/reach/win/succeed/beat/conquer/complete/finish</t>
@@ -8298,10 +8298,10 @@
     <t xml:space="preserve">pat</t>
   </si>
   <si>
-    <t xml:space="preserve">foot/step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step/walk</t>
+    <t xml:space="preserve">foot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stand/kick (R)</t>
   </si>
   <si>
     <t xml:space="preserve">பாதம்</t>
@@ -13505,7 +13505,7 @@
     <t xml:space="preserve">leg</t>
   </si>
   <si>
-    <t xml:space="preserve">stand/kick (R)</t>
+    <t xml:space="preserve">walk</t>
   </si>
   <si>
     <t xml:space="preserve">jambe</t>
@@ -13985,16 +13985,16 @@
     <t xml:space="preserve">xis</t>
   </si>
   <si>
-    <t xml:space="preserve">machine/technology/automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engineer/automate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technological/automated/automatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technologically/automatically</t>
+    <t xml:space="preserve">machine/technology/robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technological/automated/mechanical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technologically/mechanically</t>
   </si>
   <si>
     <t xml:space="preserve">技術</t>
@@ -15615,6 +15615,66 @@
   <si>
     <t xml:space="preserve">/taɪ̯⁵¹ li²¹⁴⁻²¹⁽⁴⁾/</t>
   </si>
+  <si>
+    <t xml:space="preserve">payis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add before imperative verb to not sound rude; sounds casual/whiney; see ‘karipayis’ for formal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please (request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karipayis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add before imperative verb to not sound rude; see ‘payis’ for casual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karipay is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orosatakata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loyalty to the Oros Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oros inka satakato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default/reflex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default/automatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dɪˈfɔlt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no longer a basic word; replaced with ‘xap'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ходить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khodit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[xɐˈdʲitʲ]</t>
+  </si>
 </sst>
 </file>
 
@@ -15623,7 +15683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -15754,6 +15814,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -15818,7 +15884,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15917,6 +15983,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -16068,8 +16138,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A309" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K331" activeCellId="0" sqref="K331"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1018" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1043" activeCellId="0" sqref="I1043"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29329,7 +29399,7 @@
       <c r="E546" s="0" t="s">
         <v>2745</v>
       </c>
-      <c r="F546" s="0" t="s">
+      <c r="F546" s="4" t="s">
         <v>2746</v>
       </c>
       <c r="J546" s="0" t="s">
@@ -41651,6 +41721,103 @@
       </c>
       <c r="P1040" s="6" t="s">
         <v>5149</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="0" t="s">
+        <v>5150</v>
+      </c>
+      <c r="D1041" s="0" t="s">
+        <v>5151</v>
+      </c>
+      <c r="F1041" s="0" t="s">
+        <v>5152</v>
+      </c>
+      <c r="M1041" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1041" s="0" t="s">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="0" t="s">
+        <v>5153</v>
+      </c>
+      <c r="D1042" s="0" t="s">
+        <v>5154</v>
+      </c>
+      <c r="F1042" s="0" t="s">
+        <v>5152</v>
+      </c>
+      <c r="M1042" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1042" s="0" t="s">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="0" t="s">
+        <v>5156</v>
+      </c>
+      <c r="E1043" s="0" t="s">
+        <v>5157</v>
+      </c>
+      <c r="M1043" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1043" s="0" t="s">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="0" t="s">
+        <v>5159</v>
+      </c>
+      <c r="C1044" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1044" s="0" t="s">
+        <v>5160</v>
+      </c>
+      <c r="F1044" s="0" t="s">
+        <v>5161</v>
+      </c>
+      <c r="G1044" s="0" t="s">
+        <v>5162</v>
+      </c>
+      <c r="M1044" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1044" s="0" t="s">
+        <v>5163</v>
+      </c>
+      <c r="P1044" s="6" t="s">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D1045" s="0" t="s">
+        <v>5165</v>
+      </c>
+      <c r="F1045" s="0" t="s">
+        <v>5166</v>
+      </c>
+      <c r="M1045" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1045" s="0" t="s">
+        <v>5167</v>
+      </c>
+      <c r="O1045" s="0" t="s">
+        <v>5168</v>
+      </c>
+      <c r="P1045" s="25" t="s">
+        <v>5169</v>
       </c>
     </row>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -11891,10 +11891,10 @@
     <t xml:space="preserve">tar</t>
   </si>
   <si>
-    <t xml:space="preserve">language/speech/communication/conversation/dialogue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk/speak/say/tell/discuss</t>
+    <t xml:space="preserve">language/speech/communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/speak/say/tell</t>
   </si>
   <si>
     <t xml:space="preserve">tratar</t>
@@ -16455,8 +16455,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F216" activeCellId="0" sqref="F216"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A762" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E781" activeCellId="0" sqref="E781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="5279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7807" uniqueCount="5306">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -2623,7 +2623,7 @@
     <t xml:space="preserve">to a small degree; can be used as a casually affectionate honorific suffix</t>
   </si>
   <si>
-    <t xml:space="preserve">little/(honorific) little one/baby (affectionate)</t>
+    <t xml:space="preserve">little/(time) rarely/(honorific) little one/baby (affectionate)</t>
   </si>
   <si>
     <t xml:space="preserve">a little</t>
@@ -7026,13 +7026,13 @@
     <t xml:space="preserve">nir</t>
   </si>
   <si>
-    <t xml:space="preserve">length/meter/distance</t>
+    <t xml:space="preserve">length/meter/distance/height</t>
   </si>
   <si>
     <t xml:space="preserve">extend/measure (length)/lengthen</t>
   </si>
   <si>
-    <t xml:space="preserve">long/distant/far</t>
+    <t xml:space="preserve">long/distant/far/tall/high</t>
   </si>
   <si>
     <t xml:space="preserve">distantly</t>
@@ -7542,7 +7542,7 @@
     <t xml:space="preserve">start/open/turn on/begin</t>
   </si>
   <si>
-    <t xml:space="preserve">open/on</t>
+    <t xml:space="preserve">open/on/primary/starting/first</t>
   </si>
   <si>
     <t xml:space="preserve">from (as in from here to there)/since</t>
@@ -9207,7 +9207,7 @@
     <t xml:space="preserve">disgust</t>
   </si>
   <si>
-    <t xml:space="preserve">disgusting/repulsive</t>
+    <t xml:space="preserve">disgusting/repulsive/gross/yucky</t>
   </si>
   <si>
     <t xml:space="preserve">ew/yuck</t>
@@ -13412,6 +13412,9 @@
     <t xml:space="preserve">you/(temporally) then/(spacially) there</t>
   </si>
   <si>
+    <t xml:space="preserve">give/pass/transfer (temporary) control over)/move out of my sphere of influence</t>
+  </si>
+  <si>
     <t xml:space="preserve">your/yours/their/theirs</t>
   </si>
   <si>
@@ -14126,7 +14129,7 @@
     <t xml:space="preserve">order/series/list/arrangement/row/sequence/line/queue</t>
   </si>
   <si>
-    <t xml:space="preserve">organize/sort/arrange</t>
+    <t xml:space="preserve">organize/sort/arrange/order</t>
   </si>
   <si>
     <t xml:space="preserve">orderly/organized</t>
@@ -14291,7 +14294,7 @@
     <t xml:space="preserve">inxiniy</t>
   </si>
   <si>
-    <t xml:space="preserve">inxiy/inxin</t>
+    <t xml:space="preserve">inxiy/inxin/inx</t>
   </si>
   <si>
     <t xml:space="preserve">innovation/creativity/originality/design/ingenuity/invention/intelligence</t>
@@ -14508,6 +14511,9 @@
   </si>
   <si>
     <t xml:space="preserve">I/me/(temporally) present/currently/now/(spacially) here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have/possess/have (temporary) control over/put in my sphere of influence</t>
   </si>
   <si>
     <t xml:space="preserve">my/mine</t>
@@ -15997,10 +16003,85 @@
     <t xml:space="preserve">Oros sax</t>
   </si>
   <si>
-    <t xml:space="preserve">Karas</t>
+    <t xml:space="preserve">hacker group on Venus; similar chapter on Mars but I do not remember what it's called</t>
   </si>
   <si>
     <t xml:space="preserve">Blackout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refers to apartments outside Venus that are not under the Oros’ control and those that live within them; other people in main apartments are also in the Warren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noun is small sub-company within Oros; can be any size from 1 person to hundreds; verb is act of graduating from the broods and being placed at a hatch to work; sometimes also used to describe moving from one hatch to another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can either refer to your specific class or placement group while you are a minor in school or to the whole schooling system of Venus in general; all* children are raised in the broods from birth to the end of their 16th year; years 1-4 are raised differently than 4+; select children start being offered The Choice starting end of year 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adult(s) in charge of a brood group of children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">broodhead/broodmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a student in your same brood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubation pods in which babies are gestated; planted in batches of 25 per day; birthed also in batches of 25 a day; twins are possible but rare; indentical are more common and are left to develop freely (results in 26 born on designated day); fraternal result from glitch in implantation machine; separated if caught before the embryo takes a firm hold but left to develop if it is not (also results in 26 born on designated day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of year where all brood students are shuffled; happens on Admin Day; go to sleep the night before and wake up in a new brood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface implanted into your spinal column below your brain that both records all the signals sent to your body to mirror them into virtual space and cuts off the signals to the rest of your body to induce cataplexy; can also fascilitate a forced shutdown from Oros in an emergency or if they deem you to be doing something dangerous to yourself or others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtitles/captions/subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub/caption/subtitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiy tar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">particle to indicate a vocative address to direct the sentence at someone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuxk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugly/gross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kum xok</t>
   </si>
 </sst>
 </file>
@@ -16455,8 +16536,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A762" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E781" activeCellId="0" sqref="E781"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A436" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G460" activeCellId="0" sqref="G460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38403,75 +38484,78 @@
       <c r="E892" s="0" t="s">
         <v>4435</v>
       </c>
+      <c r="F892" s="0" t="s">
+        <v>4436</v>
+      </c>
       <c r="G892" s="0" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="M892" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N892" s="0" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="C893" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E893" s="0" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="F893" s="0" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="G893" s="0" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="H893" s="0" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="M893" s="0" t="s">
         <v>43</v>
       </c>
       <c r="N893" s="0" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="O893" s="0" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="P893" s="0" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="C894" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E894" s="0" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="F894" s="0" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="G894" s="0" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
       <c r="H894" s="0" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="I894" s="0" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="J894" s="0" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="K894" s="0" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="L894" s="0" t="n">
         <v>5</v>
@@ -38480,84 +38564,84 @@
         <v>623</v>
       </c>
       <c r="N894" s="11" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="P894" s="0" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="E895" s="0" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="M895" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N895" s="0" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="D896" s="0" t="s">
         <v>1003</v>
       </c>
       <c r="E896" s="0" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="M896" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N896" s="0" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="C897" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E897" s="0" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="F897" s="0" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="M897" s="0" t="s">
         <v>43</v>
       </c>
       <c r="N897" s="0" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="O897" s="0" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="P897" s="0" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E898" s="0" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="F898" s="0" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
       <c r="G898" s="0" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="J898" s="0" t="s">
         <v>147</v>
@@ -38566,27 +38650,27 @@
         <v>32</v>
       </c>
       <c r="N898" s="9" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="O898" s="0" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="P898" s="0" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="C899" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E899" s="0" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="F899" s="0" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="J899" s="0" t="s">
         <v>216</v>
@@ -38598,21 +38682,21 @@
         <v>449</v>
       </c>
       <c r="N899" s="0" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="P899" s="0" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="E900" s="0" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="J900" s="0" t="s">
         <v>216</v>
@@ -38624,15 +38708,15 @@
         <v>0</v>
       </c>
       <c r="N900" s="0" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="E901" s="0" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="J901" s="0" t="s">
         <v>216</v>
@@ -38644,43 +38728,43 @@
         <v>0</v>
       </c>
       <c r="N901" s="0" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="E902" s="0" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="M902" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N902" s="0" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E903" s="0" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="M903" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N903" s="0" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="C904" s="0" t="s">
         <v>23</v>
@@ -38698,24 +38782,24 @@
         <v>1640</v>
       </c>
       <c r="N904" s="0" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="O904" s="0" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="P904" s="0" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="C905" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E905" s="0" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="J905" s="0" t="s">
         <v>147</v>
@@ -38727,36 +38811,36 @@
         <v>154</v>
       </c>
       <c r="N905" s="0" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="O905" s="0" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="P905" s="0" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="C906" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E906" s="0" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="F906" s="0" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="G906" s="0" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="H906" s="0" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="I906" s="0" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="J906" s="0" t="s">
         <v>313</v>
@@ -38768,29 +38852,29 @@
         <v>108</v>
       </c>
       <c r="N906" s="0" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="P906" s="0" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E907" s="0" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="M907" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N907" s="0" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="C908" s="0" t="s">
         <v>48</v>
@@ -38808,37 +38892,37 @@
         <v>1601</v>
       </c>
       <c r="N908" s="0" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="P908" s="0" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="4" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="B909" s="4"/>
       <c r="C909" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E909" s="0" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="M909" s="0" t="s">
         <v>108</v>
       </c>
       <c r="N909" s="8" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="O909" s="6"/>
       <c r="P909" s="6" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
       <c r="C910" s="0" t="s">
         <v>48</v>
@@ -38847,7 +38931,7 @@
         <v>49</v>
       </c>
       <c r="E910" s="0" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="J910" s="0" t="s">
         <v>51</v>
@@ -38856,110 +38940,110 @@
         <v>239</v>
       </c>
       <c r="N910" s="0" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="O910" s="0" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="P910" s="0" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="C911" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D911" s="0" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="E911" s="0" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="G911" s="0" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="M911" s="0" t="s">
         <v>210</v>
       </c>
       <c r="N911" s="0" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="O911" s="0" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="P911" s="10" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="H912" s="0" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="I912" s="0" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="M912" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N912" s="0" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="D913" s="0" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="E913" s="0" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="M913" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N913" s="0" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="E914" s="0" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="M914" s="0" t="s">
         <v>43</v>
       </c>
       <c r="N914" s="0" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="O914" s="0" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="P914" s="0" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="C915" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D915" s="0" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="E915" s="0" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="J915" s="7" t="s">
         <v>279</v>
@@ -38971,35 +39055,35 @@
         <v>0</v>
       </c>
       <c r="N915" s="0" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="D916" s="0" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="E916" s="0" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="M916" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N916" s="0" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E917" s="0" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="J917" s="0" t="s">
         <v>335</v>
@@ -39008,27 +39092,27 @@
         <v>32</v>
       </c>
       <c r="N917" s="9" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="O917" s="0" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="P917" s="0" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E918" s="0" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="G918" s="0" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="J918" s="0" t="s">
         <v>335</v>
@@ -39040,27 +39124,27 @@
         <v>32</v>
       </c>
       <c r="N918" s="9" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="O918" s="0" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="P918" s="0" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D919" s="0" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="E919" s="0" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="J919" s="0" t="s">
         <v>73</v>
@@ -39072,47 +39156,47 @@
         <v>0</v>
       </c>
       <c r="N919" s="0" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E920" s="0" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="F920" s="0" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="H920" s="0" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="M920" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N920" s="9" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="O920" s="0" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="P920" s="0" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E921" s="0" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="J921" s="0" t="s">
         <v>216</v>
@@ -39124,50 +39208,50 @@
         <v>32</v>
       </c>
       <c r="N921" s="9" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="O921" s="0" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="P921" s="0" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E922" s="0" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="M922" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N922" s="0" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="C923" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D923" s="0" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E923" s="0" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="F923" s="0" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="G923" s="0" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="I923" s="0" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="J923" s="0" t="s">
         <v>313</v>
@@ -39179,27 +39263,27 @@
         <v>32</v>
       </c>
       <c r="N923" s="9" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="O923" s="0" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="P923" s="0" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>1172</v>
       </c>
       <c r="D924" s="0" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="E924" s="0" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="F924" s="0" t="s">
         <v>3093</v>
@@ -39211,18 +39295,18 @@
         <v>0</v>
       </c>
       <c r="N924" s="0" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="P924" s="15" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="19.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>23</v>
@@ -39231,13 +39315,13 @@
         <v>429</v>
       </c>
       <c r="E925" s="0" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="F925" s="0" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="G925" s="0" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="J925" s="0" t="s">
         <v>432</v>
@@ -39246,62 +39330,62 @@
         <v>32</v>
       </c>
       <c r="N925" s="8" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="O925" s="6" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="P925" s="0" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E926" s="0" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="F926" s="0" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="G926" s="0" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="M926" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N926" s="9" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="O926" s="0" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="P926" s="0" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D927" s="0" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="E927" s="0" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="F927" s="0" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="G927" s="0" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="J927" s="0" t="s">
         <v>335</v>
@@ -39313,27 +39397,27 @@
         <v>43</v>
       </c>
       <c r="N927" s="0" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="O927" s="0" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="P927" s="0" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="C928" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E928" s="0" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="G928" s="0" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="J928" s="0" t="s">
         <v>391</v>
@@ -39345,27 +39429,27 @@
         <v>596</v>
       </c>
       <c r="N928" s="9" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="O928" s="0" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="P928" s="0" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="D929" s="0" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="E929" s="0" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="F929" s="0" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="J929" s="0" t="s">
         <v>216</v>
@@ -39377,35 +39461,35 @@
         <v>0</v>
       </c>
       <c r="N929" s="0" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="E930" s="0" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="M930" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N930" s="0" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E931" s="0" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="G931" s="0" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="J931" s="0" t="s">
         <v>302</v>
@@ -39417,76 +39501,76 @@
         <v>658</v>
       </c>
       <c r="N931" s="9" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="O931" s="0" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="P931" s="0" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="C932" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E932" s="0" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="F932" s="0" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="G932" s="0" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="H932" s="0" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="M932" s="0" t="s">
         <v>764</v>
       </c>
       <c r="N932" s="9" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="O932" s="0" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="P932" s="0" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="C933" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E933" s="0" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="F933" s="0" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="G933" s="0" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="M933" s="0" t="s">
         <v>108</v>
       </c>
       <c r="N933" s="9" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
       <c r="P933" s="6" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>1109</v>
@@ -39495,13 +39579,13 @@
         <v>1146</v>
       </c>
       <c r="E934" s="0" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="F934" s="0" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="I934" s="0" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="J934" s="0" t="s">
         <v>313</v>
@@ -39513,56 +39597,56 @@
         <v>1640</v>
       </c>
       <c r="N934" s="0" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="O934" s="0" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
       <c r="P934" s="0" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
       <c r="C935" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D935" s="0" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="E935" s="0" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="F935" s="0" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="M935" s="0" t="s">
         <v>210</v>
       </c>
       <c r="N935" s="0" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="O935" s="0" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="P935" s="0" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="D936" s="0" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="E936" s="0" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="F936" s="0" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="J936" s="0" t="s">
         <v>216</v>
@@ -39574,54 +39658,54 @@
         <v>0</v>
       </c>
       <c r="N936" s="0" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="C937" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E937" s="0" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
       <c r="F937" s="0" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
       <c r="G937" s="0" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
       <c r="M937" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N937" s="9" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="O937" s="10" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="P937" s="0" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
       <c r="B938" s="4"/>
       <c r="C938" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E938" s="0" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="F938" s="0" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="G938" s="0" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
       <c r="J938" s="0" t="s">
         <v>170</v>
@@ -39630,27 +39714,27 @@
         <v>32</v>
       </c>
       <c r="N938" s="8" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
       <c r="O938" s="6" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
       <c r="P938" s="6" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
       <c r="C939" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E939" s="0" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="F939" s="0" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
       <c r="J939" s="0" t="s">
         <v>216</v>
@@ -39662,30 +39746,30 @@
         <v>32</v>
       </c>
       <c r="N939" s="9" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="O939" s="10" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
       <c r="P939" s="0" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E940" s="0" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
       <c r="F940" s="0" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
       <c r="G940" s="0" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
       <c r="J940" s="0" t="s">
         <v>147</v>
@@ -39694,30 +39778,30 @@
         <v>32</v>
       </c>
       <c r="N940" s="9" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
       <c r="O940" s="10" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
       <c r="P940" s="0" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E941" s="0" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
       <c r="F941" s="0" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="G941" s="0" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="J941" s="0" t="s">
         <v>216</v>
@@ -39726,67 +39810,67 @@
         <v>210</v>
       </c>
       <c r="N941" s="0" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="O941" s="0" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="P941" s="0" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="E942" s="0" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
       <c r="M942" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N942" s="0" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
       <c r="O942" s="0" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E943" s="0" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
       <c r="F943" s="0" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="M943" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N943" s="8" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="O943" s="6" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
       <c r="P943" s="6" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
       <c r="D944" s="0" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
       <c r="I944" s="0" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
       <c r="J944" s="0" t="s">
         <v>18</v>
@@ -39795,18 +39879,18 @@
         <v>19</v>
       </c>
       <c r="M944" s="0" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
       <c r="N944" s="12" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>23</v>
@@ -39815,13 +39899,13 @@
         <v>429</v>
       </c>
       <c r="E945" s="0" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
       <c r="F945" s="0" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="G945" s="0" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
       <c r="J945" s="0" t="s">
         <v>432</v>
@@ -39830,22 +39914,22 @@
         <v>108</v>
       </c>
       <c r="N945" s="9" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
       <c r="O945" s="6"/>
       <c r="P945" s="6" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E946" s="0" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
       <c r="J946" s="0" t="s">
         <v>335</v>
@@ -39854,18 +39938,18 @@
         <v>32</v>
       </c>
       <c r="N946" s="9" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
       <c r="O946" s="0" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
       <c r="P946" s="0" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>23</v>
@@ -39877,21 +39961,21 @@
         <v>32</v>
       </c>
       <c r="N947" s="9" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
       <c r="O947" s="0" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="P947" s="0" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
       <c r="E948" s="0" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
       <c r="J948" s="0" t="s">
         <v>216</v>
@@ -39903,21 +39987,21 @@
         <v>43</v>
       </c>
       <c r="N948" s="0" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
       <c r="O948" s="0" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
       <c r="P948" s="0" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
       <c r="E949" s="0" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
       <c r="J949" s="0" t="s">
         <v>216</v>
@@ -39929,18 +40013,18 @@
         <v>0</v>
       </c>
       <c r="N949" s="0" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
       <c r="O949" s="0" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="E950" s="0" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
       <c r="J950" s="0" t="s">
         <v>216</v>
@@ -39952,24 +40036,24 @@
         <v>0</v>
       </c>
       <c r="N950" s="0" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
       <c r="O950" s="0" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E951" s="0" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="F951" s="0" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
       <c r="J951" s="0" t="s">
         <v>216</v>
@@ -39981,73 +40065,73 @@
         <v>1385</v>
       </c>
       <c r="N951" s="0" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="O951" s="0" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
       <c r="P951" s="0" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E952" s="0" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="G952" s="0" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="M952" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N952" s="9" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="O952" s="0" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
       <c r="P952" s="0" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E953" s="0" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
       <c r="F953" s="0" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="G953" s="0" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
       <c r="M953" s="0" t="s">
         <v>43</v>
       </c>
       <c r="N953" s="0" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="O953" s="0" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
       <c r="P953" s="0" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>48</v>
@@ -40056,7 +40140,7 @@
         <v>49</v>
       </c>
       <c r="E954" s="0" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
       <c r="J954" s="0" t="s">
         <v>51</v>
@@ -40065,24 +40149,24 @@
         <v>32</v>
       </c>
       <c r="N954" s="9" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
       <c r="O954" s="0" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
       <c r="P954" s="0" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E955" s="0" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
       <c r="F955" s="0" t="s">
         <v>362</v>
@@ -40091,33 +40175,33 @@
         <v>32</v>
       </c>
       <c r="N955" s="9" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
       <c r="O955" s="0" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
       <c r="P955" s="0" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E956" s="0" t="s">
-        <v>4780</v>
+        <v>4781</v>
       </c>
       <c r="G956" s="0" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
       <c r="H956" s="0" t="s">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="I956" s="0" t="s">
-        <v>4783</v>
+        <v>4784</v>
       </c>
       <c r="J956" s="0" t="s">
         <v>313</v>
@@ -40129,27 +40213,27 @@
         <v>32</v>
       </c>
       <c r="N956" s="9" t="s">
-        <v>4784</v>
+        <v>4785</v>
       </c>
       <c r="O956" s="0" t="s">
-        <v>4785</v>
+        <v>4786</v>
       </c>
       <c r="P956" s="0" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E957" s="0" t="s">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="I957" s="0" t="s">
-        <v>4789</v>
+        <v>4790</v>
       </c>
       <c r="J957" s="0" t="s">
         <v>313</v>
@@ -40161,18 +40245,18 @@
         <v>32</v>
       </c>
       <c r="N957" s="9" t="s">
-        <v>4790</v>
+        <v>4791</v>
       </c>
       <c r="O957" s="0" t="s">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="P957" s="0" t="s">
-        <v>4792</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>712</v>
@@ -40181,73 +40265,76 @@
         <v>4434</v>
       </c>
       <c r="E958" s="0" t="s">
-        <v>4794</v>
+        <v>4795</v>
+      </c>
+      <c r="F958" s="0" t="s">
+        <v>4796</v>
       </c>
       <c r="G958" s="0" t="s">
-        <v>4795</v>
+        <v>4797</v>
       </c>
       <c r="M958" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N958" s="0" t="s">
-        <v>4796</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>4797</v>
+        <v>4799</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D959" s="0" t="s">
-        <v>4798</v>
+        <v>4800</v>
       </c>
       <c r="E959" s="0" t="s">
-        <v>4799</v>
+        <v>4801</v>
       </c>
       <c r="G959" s="0" t="s">
-        <v>4800</v>
+        <v>4802</v>
       </c>
       <c r="M959" s="0" t="s">
         <v>43</v>
       </c>
       <c r="N959" s="0" t="s">
-        <v>4801</v>
+        <v>4803</v>
       </c>
       <c r="O959" s="0" t="s">
-        <v>4797</v>
+        <v>4799</v>
       </c>
       <c r="P959" s="0" t="s">
-        <v>4802</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>4803</v>
+        <v>4805</v>
       </c>
       <c r="D960" s="0" t="s">
-        <v>4804</v>
+        <v>4806</v>
       </c>
       <c r="H960" s="0" t="s">
-        <v>4805</v>
+        <v>4807</v>
       </c>
       <c r="M960" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N960" s="0" t="s">
-        <v>4806</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>4807</v>
+        <v>4809</v>
       </c>
       <c r="C961" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D961" s="0" t="s">
-        <v>4808</v>
+        <v>4810</v>
       </c>
       <c r="E961" s="0" t="s">
         <v>4005</v>
@@ -40262,35 +40349,35 @@
         <v>0</v>
       </c>
       <c r="N961" s="0" t="s">
-        <v>4809</v>
+        <v>4811</v>
       </c>
       <c r="O961" s="0" t="s">
-        <v>4810</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>4811</v>
+        <v>4813</v>
       </c>
       <c r="F962" s="0" t="s">
-        <v>4812</v>
+        <v>4814</v>
       </c>
       <c r="H962" s="0" t="s">
-        <v>4813</v>
+        <v>4815</v>
       </c>
       <c r="I962" s="0" t="s">
-        <v>4813</v>
+        <v>4815</v>
       </c>
       <c r="M962" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N962" s="0" t="s">
-        <v>4814</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>4815</v>
+        <v>4817</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>48</v>
@@ -40299,7 +40386,7 @@
         <v>49</v>
       </c>
       <c r="E963" s="0" t="s">
-        <v>4816</v>
+        <v>4818</v>
       </c>
       <c r="J963" s="0" t="s">
         <v>51</v>
@@ -40308,63 +40395,63 @@
         <v>239</v>
       </c>
       <c r="N963" s="0" t="s">
-        <v>4817</v>
+        <v>4819</v>
       </c>
       <c r="O963" s="0" t="s">
-        <v>4818</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>4819</v>
+        <v>4821</v>
       </c>
       <c r="D964" s="0" t="s">
-        <v>4820</v>
+        <v>4822</v>
       </c>
       <c r="E964" s="0" t="s">
-        <v>4821</v>
+        <v>4823</v>
       </c>
       <c r="M964" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N964" s="0" t="s">
-        <v>4822</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>4823</v>
+        <v>4825</v>
       </c>
       <c r="D965" s="0" t="s">
-        <v>4824</v>
+        <v>4826</v>
       </c>
       <c r="E965" s="0" t="s">
-        <v>4825</v>
+        <v>4827</v>
       </c>
       <c r="M965" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N965" s="0" t="s">
-        <v>4826</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>4827</v>
+        <v>4829</v>
       </c>
       <c r="E966" s="0" t="s">
-        <v>4828</v>
+        <v>4830</v>
       </c>
       <c r="M966" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N966" s="0" t="s">
-        <v>4829</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>4830</v>
+        <v>4832</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>712</v>
@@ -40373,21 +40460,21 @@
         <v>3656</v>
       </c>
       <c r="E967" s="0" t="s">
-        <v>4831</v>
+        <v>4833</v>
       </c>
       <c r="G967" s="0" t="s">
-        <v>4832</v>
+        <v>4834</v>
       </c>
       <c r="M967" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N967" s="0" t="s">
-        <v>4833</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>4834</v>
+        <v>4836</v>
       </c>
       <c r="C968" s="0" t="s">
         <v>48</v>
@@ -40396,7 +40483,7 @@
         <v>151</v>
       </c>
       <c r="E968" s="0" t="s">
-        <v>4835</v>
+        <v>4837</v>
       </c>
       <c r="J968" s="0" t="s">
         <v>153</v>
@@ -40405,27 +40492,27 @@
         <v>32</v>
       </c>
       <c r="N968" s="9" t="s">
-        <v>4836</v>
+        <v>4838</v>
       </c>
       <c r="O968" s="0" t="s">
-        <v>4837</v>
+        <v>4839</v>
       </c>
       <c r="P968" s="0" t="s">
-        <v>4838</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>4839</v>
+        <v>4841</v>
       </c>
       <c r="C969" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D969" s="0" t="s">
-        <v>4840</v>
+        <v>4842</v>
       </c>
       <c r="E969" s="0" t="s">
-        <v>4841</v>
+        <v>4843</v>
       </c>
       <c r="J969" s="0" t="s">
         <v>73</v>
@@ -40437,47 +40524,47 @@
         <v>0</v>
       </c>
       <c r="N969" s="0" t="s">
-        <v>4842</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>4843</v>
+        <v>4845</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E970" s="0" t="s">
-        <v>4844</v>
+        <v>4846</v>
       </c>
       <c r="M970" s="0" t="s">
         <v>526</v>
       </c>
       <c r="N970" s="9" t="s">
-        <v>4845</v>
+        <v>4847</v>
       </c>
       <c r="O970" s="13" t="s">
-        <v>4846</v>
+        <v>4848</v>
       </c>
       <c r="P970" s="0" t="s">
-        <v>4847</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>4848</v>
+        <v>4850</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E971" s="0" t="s">
-        <v>4849</v>
+        <v>4851</v>
       </c>
       <c r="F971" s="0" t="s">
-        <v>4850</v>
+        <v>4852</v>
       </c>
       <c r="G971" s="0" t="s">
-        <v>4851</v>
+        <v>4853</v>
       </c>
       <c r="J971" s="0" t="s">
         <v>666</v>
@@ -40486,27 +40573,27 @@
         <v>32</v>
       </c>
       <c r="N971" s="9" t="s">
-        <v>4852</v>
+        <v>4854</v>
       </c>
       <c r="O971" s="0" t="s">
-        <v>4853</v>
+        <v>4855</v>
       </c>
       <c r="P971" s="0" t="s">
-        <v>4854</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>4855</v>
+        <v>4857</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D972" s="0" t="s">
-        <v>4856</v>
+        <v>4858</v>
       </c>
       <c r="E972" s="0" t="s">
-        <v>4857</v>
+        <v>4859</v>
       </c>
       <c r="J972" s="0" t="s">
         <v>73</v>
@@ -40518,44 +40605,44 @@
         <v>0</v>
       </c>
       <c r="N972" s="0" t="s">
-        <v>4858</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>4859</v>
+        <v>4861</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E973" s="0" t="s">
-        <v>4860</v>
+        <v>4862</v>
       </c>
       <c r="F973" s="0" t="s">
-        <v>4861</v>
+        <v>4863</v>
       </c>
       <c r="M973" s="0" t="s">
         <v>61</v>
       </c>
       <c r="N973" s="0" t="s">
-        <v>4862</v>
+        <v>4864</v>
       </c>
       <c r="P973" s="0" t="s">
-        <v>4863</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>4864</v>
+        <v>4866</v>
       </c>
       <c r="C974" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E974" s="0" t="s">
-        <v>4865</v>
+        <v>4867</v>
       </c>
       <c r="G974" s="0" t="s">
-        <v>4865</v>
+        <v>4867</v>
       </c>
       <c r="J974" s="0" t="s">
         <v>302</v>
@@ -40567,30 +40654,30 @@
         <v>108</v>
       </c>
       <c r="N974" s="0" t="s">
-        <v>4865</v>
+        <v>4867</v>
       </c>
       <c r="P974" s="0" t="s">
-        <v>4866</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>4867</v>
+        <v>4869</v>
       </c>
       <c r="C975" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D975" s="4" t="s">
-        <v>4868</v>
+        <v>4870</v>
       </c>
       <c r="E975" s="4" t="s">
-        <v>4869</v>
+        <v>4871</v>
       </c>
       <c r="F975" s="4" t="s">
-        <v>4870</v>
+        <v>4872</v>
       </c>
       <c r="G975" s="4" t="s">
-        <v>4871</v>
+        <v>4873</v>
       </c>
       <c r="K975" s="4"/>
       <c r="L975" s="4"/>
@@ -40598,26 +40685,26 @@
         <v>32</v>
       </c>
       <c r="N975" s="24" t="s">
-        <v>4872</v>
+        <v>4874</v>
       </c>
       <c r="O975" s="6" t="s">
-        <v>4873</v>
+        <v>4875</v>
       </c>
       <c r="P975" s="6" t="s">
-        <v>4874</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
       <c r="C976" s="4"/>
       <c r="D976" s="4" t="s">
-        <v>4876</v>
+        <v>4878</v>
       </c>
       <c r="E976" s="4"/>
       <c r="F976" s="4" t="s">
-        <v>4877</v>
+        <v>4879</v>
       </c>
       <c r="G976" s="4"/>
       <c r="K976" s="4"/>
@@ -40626,64 +40713,64 @@
         <v>0</v>
       </c>
       <c r="N976" s="9" t="s">
-        <v>4878</v>
+        <v>4880</v>
       </c>
       <c r="O976" s="4"/>
       <c r="P976" s="4"/>
     </row>
     <row r="977" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>4879</v>
+        <v>4881</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>530</v>
       </c>
       <c r="E977" s="0" t="s">
-        <v>4880</v>
+        <v>4882</v>
       </c>
       <c r="F977" s="0" t="s">
-        <v>4881</v>
+        <v>4883</v>
       </c>
       <c r="G977" s="0" t="s">
-        <v>4882</v>
+        <v>4884</v>
       </c>
       <c r="M977" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N977" s="8" t="s">
-        <v>4883</v>
+        <v>4885</v>
       </c>
       <c r="O977" s="6" t="s">
-        <v>4884</v>
+        <v>4886</v>
       </c>
       <c r="P977" s="6" t="s">
-        <v>4885</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>4886</v>
+        <v>4888</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>530</v>
       </c>
       <c r="E978" s="0" t="s">
-        <v>4887</v>
+        <v>4889</v>
       </c>
       <c r="F978" s="0" t="s">
-        <v>4888</v>
+        <v>4890</v>
       </c>
       <c r="G978" s="0" t="s">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="M978" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N978" s="9" t="s">
-        <v>4890</v>
+        <v>4892</v>
       </c>
       <c r="O978" s="6" t="s">
-        <v>4891</v>
+        <v>4893</v>
       </c>
       <c r="P978" s="6" t="s">
         <v>967</v>
@@ -40691,30 +40778,30 @@
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>4892</v>
+        <v>4894</v>
       </c>
       <c r="E979" s="0" t="s">
-        <v>4893</v>
+        <v>4895</v>
       </c>
       <c r="M979" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N979" s="0" t="s">
-        <v>4894</v>
+        <v>4896</v>
       </c>
       <c r="O979" s="0" t="s">
-        <v>4895</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>4896</v>
+        <v>4898</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E980" s="0" t="s">
-        <v>4897</v>
+        <v>4899</v>
       </c>
       <c r="J980" s="0" t="s">
         <v>216</v>
@@ -40726,61 +40813,61 @@
         <v>1020</v>
       </c>
       <c r="N980" s="0" t="s">
-        <v>4898</v>
+        <v>4900</v>
       </c>
       <c r="P980" s="0" t="s">
-        <v>4899</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>4900</v>
+        <v>4902</v>
       </c>
       <c r="E981" s="0" t="s">
-        <v>4901</v>
+        <v>4903</v>
       </c>
       <c r="M981" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N981" s="0" t="s">
-        <v>4902</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>4903</v>
+        <v>4905</v>
       </c>
       <c r="D982" s="0" t="s">
-        <v>4904</v>
+        <v>4906</v>
       </c>
       <c r="E982" s="0" t="s">
-        <v>4905</v>
+        <v>4907</v>
       </c>
       <c r="M982" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N982" s="0" t="s">
-        <v>4906</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>4907</v>
+        <v>4909</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E983" s="0" t="s">
-        <v>4908</v>
+        <v>4910</v>
       </c>
       <c r="F983" s="0" t="s">
-        <v>4909</v>
+        <v>4911</v>
       </c>
       <c r="G983" s="0" t="s">
-        <v>4910</v>
+        <v>4912</v>
       </c>
       <c r="H983" s="0" t="s">
-        <v>4911</v>
+        <v>4913</v>
       </c>
       <c r="J983" s="0" t="s">
         <v>147</v>
@@ -40789,27 +40876,27 @@
         <v>32</v>
       </c>
       <c r="N983" s="9" t="s">
-        <v>4912</v>
+        <v>4914</v>
       </c>
       <c r="O983" s="0" t="s">
-        <v>4913</v>
+        <v>4915</v>
       </c>
       <c r="P983" s="0" t="s">
-        <v>4914</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>4915</v>
+        <v>4917</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D984" s="0" t="s">
-        <v>4916</v>
+        <v>4918</v>
       </c>
       <c r="E984" s="0" t="s">
-        <v>4917</v>
+        <v>4919</v>
       </c>
       <c r="J984" s="0" t="s">
         <v>216</v>
@@ -40821,21 +40908,21 @@
         <v>43</v>
       </c>
       <c r="N984" s="0" t="s">
-        <v>4918</v>
+        <v>4920</v>
       </c>
       <c r="O984" s="0" t="s">
-        <v>4919</v>
+        <v>4921</v>
       </c>
       <c r="P984" s="0" t="s">
-        <v>4920</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>4921</v>
+        <v>4923</v>
       </c>
       <c r="E985" s="0" t="s">
-        <v>4922</v>
+        <v>4924</v>
       </c>
       <c r="J985" s="0" t="s">
         <v>216</v>
@@ -40847,24 +40934,24 @@
         <v>0</v>
       </c>
       <c r="N985" s="0" t="s">
-        <v>4923</v>
+        <v>4925</v>
       </c>
       <c r="O985" s="0" t="s">
-        <v>4924</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>4925</v>
+        <v>4927</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E986" s="0" t="s">
-        <v>4926</v>
+        <v>4928</v>
       </c>
       <c r="F986" s="0" t="s">
-        <v>4927</v>
+        <v>4929</v>
       </c>
       <c r="J986" s="0" t="s">
         <v>216</v>
@@ -40876,21 +40963,21 @@
         <v>61</v>
       </c>
       <c r="N986" s="0" t="s">
-        <v>4928</v>
+        <v>4930</v>
       </c>
       <c r="P986" s="0" t="s">
-        <v>4929</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>4930</v>
+        <v>4932</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D987" s="0" t="s">
-        <v>4931</v>
+        <v>4933</v>
       </c>
       <c r="E987" s="0" t="s">
         <v>4223</v>
@@ -40905,79 +40992,79 @@
         <v>0</v>
       </c>
       <c r="N987" s="0" t="s">
-        <v>4932</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>4933</v>
+        <v>4935</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D988" s="0" t="s">
-        <v>4934</v>
+        <v>4936</v>
       </c>
       <c r="E988" s="0" t="s">
-        <v>4935</v>
+        <v>4937</v>
       </c>
       <c r="G988" s="0" t="s">
-        <v>4936</v>
+        <v>4938</v>
       </c>
       <c r="M988" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N988" s="9" t="s">
-        <v>4937</v>
+        <v>4939</v>
       </c>
       <c r="O988" s="10" t="s">
-        <v>4938</v>
+        <v>4940</v>
       </c>
       <c r="P988" s="0" t="s">
-        <v>4939</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E989" s="0" t="s">
-        <v>4941</v>
+        <v>4943</v>
       </c>
       <c r="G989" s="0" t="s">
-        <v>4942</v>
+        <v>4944</v>
       </c>
       <c r="M989" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N989" s="9" t="s">
-        <v>4943</v>
+        <v>4945</v>
       </c>
       <c r="O989" s="0" t="s">
-        <v>4944</v>
+        <v>4946</v>
       </c>
       <c r="P989" s="0" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>4946</v>
+        <v>4948</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E990" s="0" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
       <c r="F990" s="0" t="s">
-        <v>4948</v>
+        <v>4950</v>
       </c>
       <c r="G990" s="0" t="s">
-        <v>4949</v>
+        <v>4951</v>
       </c>
       <c r="J990" s="0" t="s">
         <v>216</v>
@@ -40986,44 +41073,44 @@
         <v>755</v>
       </c>
       <c r="N990" s="0" t="s">
-        <v>4950</v>
+        <v>4952</v>
       </c>
       <c r="P990" s="0" t="s">
-        <v>4951</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E991" s="0" t="s">
-        <v>4953</v>
+        <v>4955</v>
       </c>
       <c r="J991" s="0" t="s">
-        <v>4954</v>
+        <v>4956</v>
       </c>
       <c r="M991" s="0" t="s">
         <v>108</v>
       </c>
       <c r="N991" s="0" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
       <c r="P991" s="0" t="s">
-        <v>4956</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>4957</v>
+        <v>4959</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E992" s="0" t="s">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="J992" s="0" t="s">
         <v>73</v>
@@ -41035,18 +41122,18 @@
         <v>1020</v>
       </c>
       <c r="N992" s="0" t="s">
-        <v>4959</v>
+        <v>4961</v>
       </c>
       <c r="P992" s="0" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>4961</v>
+        <v>4963</v>
       </c>
       <c r="E993" s="0" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="J993" s="0" t="s">
         <v>73</v>
@@ -41058,18 +41145,18 @@
         <v>0</v>
       </c>
       <c r="N993" s="0" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
       <c r="O993" s="0" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
       <c r="E994" s="0" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="J994" s="0" t="s">
         <v>73</v>
@@ -41081,47 +41168,47 @@
         <v>0</v>
       </c>
       <c r="N994" s="0" t="s">
-        <v>4967</v>
+        <v>4969</v>
       </c>
       <c r="O994" s="0" t="s">
-        <v>4968</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>4969</v>
+        <v>4971</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E995" s="0" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
       <c r="F995" s="0" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
       <c r="G995" s="0" t="s">
-        <v>4972</v>
+        <v>4974</v>
       </c>
       <c r="M995" s="0" t="s">
         <v>108</v>
       </c>
       <c r="N995" s="0" t="s">
-        <v>4973</v>
+        <v>4975</v>
       </c>
       <c r="P995" s="0" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>4975</v>
+        <v>4977</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E996" s="0" t="s">
-        <v>4976</v>
+        <v>4978</v>
       </c>
       <c r="J996" s="0" t="s">
         <v>335</v>
@@ -41130,24 +41217,24 @@
         <v>239</v>
       </c>
       <c r="N996" s="5" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
       <c r="O996" s="6" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="P996" s="6" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>4980</v>
+        <v>4982</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E997" s="0" t="s">
-        <v>4981</v>
+        <v>4983</v>
       </c>
       <c r="J997" s="0" t="s">
         <v>335</v>
@@ -41156,18 +41243,18 @@
         <v>442</v>
       </c>
       <c r="N997" s="0" t="s">
-        <v>4982</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>4983</v>
+        <v>4985</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E998" s="0" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="J998" s="0" t="s">
         <v>335</v>
@@ -41176,21 +41263,21 @@
         <v>755</v>
       </c>
       <c r="N998" s="0" t="s">
-        <v>4983</v>
+        <v>4985</v>
       </c>
       <c r="P998" s="6" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E999" s="0" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
       <c r="J999" s="0" t="s">
         <v>335</v>
@@ -41199,50 +41286,50 @@
         <v>314</v>
       </c>
       <c r="N999" s="5" t="s">
-        <v>4988</v>
+        <v>4990</v>
       </c>
       <c r="O999" s="6" t="s">
-        <v>4989</v>
+        <v>4991</v>
       </c>
       <c r="P999" s="6" t="s">
-        <v>4990</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>4991</v>
+        <v>4993</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1000" s="0" t="s">
-        <v>4992</v>
+        <v>4994</v>
       </c>
       <c r="J1000" s="0" t="s">
         <v>246</v>
       </c>
       <c r="M1000" s="0" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
       <c r="N1000" s="5" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
       <c r="O1000" s="6" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
       <c r="P1000" s="6" t="s">
-        <v>4996</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>4997</v>
+        <v>4999</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1001" s="0" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="J1001" s="0" t="s">
         <v>335</v>
@@ -41251,24 +41338,24 @@
         <v>32</v>
       </c>
       <c r="N1001" s="8" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
       <c r="O1001" s="6" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="P1001" s="6" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1002" s="0" t="s">
-        <v>5003</v>
+        <v>5005</v>
       </c>
       <c r="J1002" s="0" t="s">
         <v>335</v>
@@ -41277,21 +41364,21 @@
         <v>1020</v>
       </c>
       <c r="N1002" s="0" t="s">
-        <v>5004</v>
+        <v>5006</v>
       </c>
       <c r="P1002" s="6" t="s">
-        <v>5005</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1003" s="0" t="s">
-        <v>5007</v>
+        <v>5009</v>
       </c>
       <c r="J1003" s="0" t="s">
         <v>335</v>
@@ -41300,24 +41387,24 @@
         <v>164</v>
       </c>
       <c r="N1003" s="0" t="s">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="O1003" s="6" t="s">
-        <v>5009</v>
+        <v>5011</v>
       </c>
       <c r="P1003" s="6" t="s">
-        <v>5010</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>5011</v>
+        <v>5013</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1004" s="0" t="s">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="J1004" s="0" t="s">
         <v>246</v>
@@ -41326,24 +41413,24 @@
         <v>32</v>
       </c>
       <c r="N1004" s="9" t="s">
-        <v>5013</v>
+        <v>5015</v>
       </c>
       <c r="O1004" s="6" t="s">
-        <v>5014</v>
+        <v>5016</v>
       </c>
       <c r="P1004" s="6" t="s">
-        <v>5015</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>5016</v>
+        <v>5018</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>5017</v>
+        <v>5019</v>
       </c>
       <c r="F1005" s="0" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
       <c r="J1005" s="0" t="s">
         <v>335</v>
@@ -41355,18 +41442,18 @@
         <v>0</v>
       </c>
       <c r="N1005" s="0" t="s">
-        <v>5019</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>5020</v>
+        <v>5022</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>5021</v>
+        <v>5023</v>
       </c>
       <c r="F1006" s="0" t="s">
-        <v>5022</v>
+        <v>5024</v>
       </c>
       <c r="J1006" s="0" t="s">
         <v>335</v>
@@ -41378,18 +41465,18 @@
         <v>0</v>
       </c>
       <c r="N1006" s="0" t="s">
-        <v>5023</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>5024</v>
+        <v>5026</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>5025</v>
+        <v>5027</v>
       </c>
       <c r="F1007" s="0" t="s">
-        <v>5026</v>
+        <v>5028</v>
       </c>
       <c r="J1007" s="0" t="s">
         <v>335</v>
@@ -41401,7 +41488,7 @@
         <v>0</v>
       </c>
       <c r="N1007" s="0" t="s">
-        <v>5027</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41409,7 +41496,7 @@
         <v>21</v>
       </c>
       <c r="D1008" s="0" t="s">
-        <v>5028</v>
+        <v>5030</v>
       </c>
       <c r="I1008" s="0" t="s">
         <v>16</v>
@@ -41429,16 +41516,16 @@
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>5029</v>
+        <v>5031</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>5030</v>
+        <v>5032</v>
       </c>
       <c r="E1009" s="0" t="s">
-        <v>5031</v>
+        <v>5033</v>
       </c>
       <c r="F1009" s="0" t="s">
-        <v>5032</v>
+        <v>5034</v>
       </c>
       <c r="J1009" s="0" t="s">
         <v>216</v>
@@ -41447,18 +41534,18 @@
         <v>0</v>
       </c>
       <c r="N1009" s="0" t="s">
-        <v>5033</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>5034</v>
+        <v>5036</v>
       </c>
       <c r="C1010" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1010" s="0" t="s">
-        <v>5035</v>
+        <v>5037</v>
       </c>
       <c r="J1010" s="0" t="s">
         <v>246</v>
@@ -41467,30 +41554,30 @@
         <v>32</v>
       </c>
       <c r="N1010" s="9" t="s">
-        <v>5036</v>
+        <v>5038</v>
       </c>
       <c r="O1010" s="6" t="s">
-        <v>5037</v>
+        <v>5039</v>
       </c>
       <c r="P1010" s="6" t="s">
-        <v>5038</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>5039</v>
+        <v>5041</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>5040</v>
+        <v>5042</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1011" s="0" t="s">
-        <v>5041</v>
+        <v>5043</v>
       </c>
       <c r="G1011" s="0" t="s">
-        <v>5042</v>
+        <v>5044</v>
       </c>
       <c r="J1011" s="0" t="s">
         <v>246</v>
@@ -41499,161 +41586,161 @@
         <v>32</v>
       </c>
       <c r="N1011" s="9" t="s">
-        <v>5043</v>
+        <v>5045</v>
       </c>
       <c r="O1011" s="6" t="s">
-        <v>5044</v>
+        <v>5046</v>
       </c>
       <c r="P1011" s="6" t="s">
-        <v>5045</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="E1012" s="0" t="s">
-        <v>5047</v>
+        <v>5049</v>
       </c>
       <c r="F1012" s="0" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
       <c r="G1012" s="0" t="s">
-        <v>5049</v>
+        <v>5051</v>
       </c>
       <c r="M1012" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1012" s="0" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
       <c r="O1012" s="0" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>5053</v>
+        <v>5055</v>
       </c>
       <c r="D1013" s="0" t="s">
-        <v>5054</v>
+        <v>5056</v>
       </c>
       <c r="G1013" s="0" t="s">
-        <v>5055</v>
+        <v>5057</v>
       </c>
       <c r="H1013" s="0" t="s">
-        <v>5055</v>
+        <v>5057</v>
       </c>
       <c r="M1013" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1013" s="0" t="s">
-        <v>5056</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>5057</v>
+        <v>5059</v>
       </c>
       <c r="D1014" s="0" t="s">
-        <v>5058</v>
+        <v>5060</v>
       </c>
       <c r="G1014" s="0" t="s">
-        <v>5059</v>
+        <v>5061</v>
       </c>
       <c r="H1014" s="0" t="s">
-        <v>5059</v>
+        <v>5061</v>
       </c>
       <c r="M1014" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1014" s="0" t="s">
-        <v>5060</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>5061</v>
+        <v>5063</v>
       </c>
       <c r="D1015" s="0" t="s">
-        <v>5062</v>
+        <v>5064</v>
       </c>
       <c r="G1015" s="0" t="s">
-        <v>5063</v>
+        <v>5065</v>
       </c>
       <c r="H1015" s="0" t="s">
-        <v>5063</v>
+        <v>5065</v>
       </c>
       <c r="M1015" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1015" s="0" t="s">
-        <v>5064</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>5065</v>
+        <v>5067</v>
       </c>
       <c r="D1016" s="0" t="s">
-        <v>5066</v>
+        <v>5068</v>
       </c>
       <c r="E1016" s="0" t="s">
-        <v>5067</v>
+        <v>5069</v>
       </c>
       <c r="F1016" s="0" t="s">
-        <v>5068</v>
+        <v>5070</v>
       </c>
       <c r="M1016" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1016" s="0" t="s">
-        <v>5069</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D1017" s="0" t="s">
+        <v>5073</v>
+      </c>
+      <c r="E1017" s="0" t="s">
+        <v>5074</v>
+      </c>
+      <c r="F1017" s="0" t="s">
         <v>5070</v>
       </c>
-      <c r="D1017" s="0" t="s">
-        <v>5071</v>
-      </c>
-      <c r="E1017" s="0" t="s">
-        <v>5072</v>
-      </c>
-      <c r="F1017" s="0" t="s">
-        <v>5068</v>
-      </c>
       <c r="M1017" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1017" s="0" t="s">
-        <v>5073</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
       <c r="F1018" s="0" t="s">
-        <v>5075</v>
+        <v>5077</v>
       </c>
       <c r="M1018" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1018" s="0" t="s">
-        <v>5076</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>5077</v>
+        <v>5079</v>
       </c>
       <c r="F1019" s="0" t="s">
-        <v>5078</v>
+        <v>5080</v>
       </c>
       <c r="M1019" s="0" t="s">
         <v>0</v>
@@ -41664,124 +41751,124 @@
     </row>
     <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
       <c r="D1020" s="0" t="s">
-        <v>5080</v>
+        <v>5082</v>
       </c>
       <c r="F1020" s="0" t="s">
-        <v>5081</v>
+        <v>5083</v>
       </c>
       <c r="M1020" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1020" s="0" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
       <c r="D1021" s="0" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
       <c r="F1021" s="0" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
       <c r="M1021" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1021" s="0" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
       <c r="D1022" s="0" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
       <c r="F1022" s="0" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
       <c r="M1022" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1022" s="0" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
       <c r="D1023" s="0" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
       <c r="F1023" s="0" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
       <c r="M1023" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1023" s="0" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
       <c r="C1024" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1024" s="0" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
       <c r="M1024" s="0" t="s">
         <v>314</v>
       </c>
       <c r="N1024" s="0" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
       <c r="O1024" s="6" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
       <c r="P1024" s="6" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
       <c r="C1025" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1025" s="0" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
       <c r="M1025" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N1025" s="9" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="O1025" s="6" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
       <c r="P1025" s="6" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
       <c r="E1026" s="0" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
       <c r="J1026" s="0" t="s">
         <v>335</v>
@@ -41790,27 +41877,27 @@
         <v>61</v>
       </c>
       <c r="N1026" s="0" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
       <c r="P1026" s="6" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>712</v>
       </c>
       <c r="D1027" s="0" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
       <c r="E1027" s="0" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
       <c r="F1027" s="0" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
       <c r="M1027" s="0" t="s">
         <v>0</v>
@@ -41821,331 +41908,331 @@
     </row>
     <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>712</v>
       </c>
       <c r="G1028" s="0" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
       <c r="M1028" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1028" s="0" t="s">
-        <v>5113</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>5114</v>
+        <v>5116</v>
       </c>
       <c r="D1029" s="0" t="s">
-        <v>5115</v>
+        <v>5117</v>
       </c>
       <c r="E1029" s="0" t="s">
-        <v>5116</v>
+        <v>5118</v>
       </c>
       <c r="M1029" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1029" s="0" t="s">
-        <v>5117</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="B1030" s="0" t="s">
-        <v>5119</v>
+        <v>5121</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>48</v>
       </c>
       <c r="E1030" s="0" t="s">
-        <v>5120</v>
+        <v>5122</v>
       </c>
       <c r="M1030" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1030" s="0" t="s">
-        <v>5121</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>5122</v>
+        <v>5124</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>5123</v>
+        <v>5125</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D1031" s="0" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="E1031" s="0" t="s">
-        <v>5125</v>
+        <v>5127</v>
       </c>
       <c r="M1031" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1031" s="0" t="s">
-        <v>5126</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>5127</v>
+        <v>5129</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>5128</v>
+        <v>5130</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D1032" s="0" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="E1032" s="0" t="s">
-        <v>5129</v>
+        <v>5131</v>
       </c>
       <c r="M1032" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1032" s="0" t="s">
-        <v>5130</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>5131</v>
+        <v>5133</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>48</v>
       </c>
       <c r="E1033" s="0" t="s">
-        <v>5132</v>
+        <v>5134</v>
       </c>
       <c r="M1033" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1033" s="0" t="s">
-        <v>5133</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>5134</v>
+        <v>5136</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D1034" s="0" t="s">
-        <v>5135</v>
+        <v>5137</v>
       </c>
       <c r="E1034" s="0" t="s">
-        <v>5136</v>
+        <v>5138</v>
       </c>
       <c r="M1034" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1034" s="0" t="s">
-        <v>5137</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>5138</v>
+        <v>5140</v>
       </c>
       <c r="C1035" s="0" t="s">
         <v>712</v>
       </c>
       <c r="D1035" s="0" t="s">
-        <v>5139</v>
+        <v>5141</v>
       </c>
       <c r="F1035" s="0" t="s">
-        <v>5140</v>
+        <v>5142</v>
       </c>
       <c r="M1035" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1035" s="0" t="s">
-        <v>5141</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>5142</v>
+        <v>5144</v>
       </c>
       <c r="C1036" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1036" s="0" t="s">
-        <v>5143</v>
+        <v>5145</v>
       </c>
       <c r="M1036" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N1036" s="8" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="O1036" s="6" t="s">
-        <v>5145</v>
+        <v>5147</v>
       </c>
       <c r="P1036" s="6" t="s">
-        <v>5146</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>5147</v>
+        <v>5149</v>
       </c>
       <c r="B1037" s="0" t="s">
-        <v>5148</v>
+        <v>5150</v>
       </c>
       <c r="D1037" s="0" t="s">
-        <v>5149</v>
+        <v>5151</v>
       </c>
       <c r="F1037" s="0" t="s">
-        <v>5150</v>
+        <v>5152</v>
       </c>
       <c r="M1037" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1037" s="0" t="s">
-        <v>5151</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1038" s="0" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="M1038" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N1038" s="8" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="O1038" s="6" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
       <c r="P1038" s="6" t="s">
-        <v>5156</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>5157</v>
+        <v>5159</v>
       </c>
       <c r="B1039" s="0" t="s">
-        <v>5158</v>
+        <v>5160</v>
       </c>
       <c r="C1039" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1039" s="0" t="s">
-        <v>5159</v>
+        <v>5161</v>
       </c>
       <c r="F1039" s="0" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
       <c r="I1039" s="0" t="s">
-        <v>5161</v>
+        <v>5163</v>
       </c>
       <c r="M1039" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N1039" s="8" t="s">
-        <v>5162</v>
+        <v>5164</v>
       </c>
       <c r="O1039" s="6" t="s">
-        <v>5163</v>
+        <v>5165</v>
       </c>
       <c r="P1039" s="6" t="s">
-        <v>5164</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
       <c r="D1040" s="0" t="s">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="F1040" s="0" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
       <c r="M1040" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1040" s="0" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="D1041" s="0" t="s">
+        <v>5171</v>
+      </c>
+      <c r="F1041" s="0" t="s">
         <v>5169</v>
       </c>
-      <c r="F1041" s="0" t="s">
-        <v>5167</v>
-      </c>
       <c r="M1041" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1041" s="0" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>5171</v>
+        <v>5173</v>
       </c>
       <c r="E1042" s="0" t="s">
-        <v>5172</v>
+        <v>5174</v>
       </c>
       <c r="M1042" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1042" s="0" t="s">
-        <v>5173</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>5174</v>
+        <v>5176</v>
       </c>
       <c r="C1043" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1043" s="0" t="s">
-        <v>5175</v>
+        <v>5177</v>
       </c>
       <c r="F1043" s="0" t="s">
-        <v>5176</v>
+        <v>5178</v>
       </c>
       <c r="G1043" s="0" t="s">
-        <v>5177</v>
+        <v>5179</v>
       </c>
       <c r="M1043" s="0" t="s">
         <v>108</v>
       </c>
       <c r="N1043" s="0" t="s">
-        <v>5178</v>
+        <v>5180</v>
       </c>
       <c r="P1043" s="6" t="s">
-        <v>5179</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42153,84 +42240,84 @@
         <v>1189</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>5180</v>
+        <v>5182</v>
       </c>
       <c r="F1044" s="0" t="s">
-        <v>5181</v>
+        <v>5183</v>
       </c>
       <c r="M1044" s="0" t="s">
         <v>154</v>
       </c>
       <c r="N1044" s="0" t="s">
-        <v>5182</v>
+        <v>5184</v>
       </c>
       <c r="O1044" s="0" t="s">
-        <v>5183</v>
+        <v>5185</v>
       </c>
       <c r="P1044" s="4" t="s">
-        <v>5184</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>5185</v>
+        <v>5187</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>5186</v>
+        <v>5188</v>
       </c>
       <c r="F1045" s="0" t="s">
-        <v>5187</v>
+        <v>5189</v>
       </c>
       <c r="M1045" s="0" t="s">
         <v>210</v>
       </c>
       <c r="N1045" s="0" t="s">
-        <v>5188</v>
+        <v>5190</v>
       </c>
       <c r="O1045" s="4" t="s">
-        <v>5189</v>
+        <v>5191</v>
       </c>
       <c r="P1045" s="4" t="s">
-        <v>5190</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>5191</v>
+        <v>5193</v>
       </c>
       <c r="E1046" s="0" t="s">
-        <v>5192</v>
+        <v>5194</v>
       </c>
       <c r="M1046" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1046" s="0" t="s">
-        <v>5193</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>5194</v>
+        <v>5196</v>
       </c>
       <c r="E1047" s="0" t="s">
-        <v>5195</v>
+        <v>5197</v>
       </c>
       <c r="G1047" s="0" t="s">
-        <v>5196</v>
+        <v>5198</v>
       </c>
       <c r="H1047" s="0" t="s">
-        <v>5197</v>
+        <v>5199</v>
       </c>
       <c r="M1047" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1047" s="0" t="s">
-        <v>5198</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>5199</v>
+        <v>5201</v>
       </c>
       <c r="E1048" s="0" t="s">
         <v>4191</v>
@@ -42247,173 +42334,173 @@
         <v>3664</v>
       </c>
       <c r="E1049" s="0" t="s">
-        <v>5200</v>
+        <v>5202</v>
       </c>
       <c r="M1049" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1049" s="0" t="s">
-        <v>5201</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>5202</v>
+        <v>5204</v>
       </c>
       <c r="E1050" s="0" t="s">
-        <v>5203</v>
+        <v>5205</v>
       </c>
       <c r="M1050" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1050" s="0" t="s">
-        <v>5204</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>5205</v>
+        <v>5207</v>
       </c>
       <c r="C1051" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E1051" s="0" t="s">
-        <v>5206</v>
+        <v>5208</v>
       </c>
       <c r="M1051" s="0" t="s">
         <v>32</v>
       </c>
       <c r="N1051" s="8" t="s">
-        <v>5207</v>
+        <v>5209</v>
       </c>
       <c r="O1051" s="6" t="s">
-        <v>5208</v>
+        <v>5210</v>
       </c>
       <c r="P1051" s="6" t="s">
-        <v>5209</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>5210</v>
+        <v>5212</v>
       </c>
       <c r="E1052" s="0" t="s">
-        <v>5211</v>
+        <v>5213</v>
       </c>
       <c r="M1052" s="0" t="s">
         <v>755</v>
       </c>
       <c r="N1052" s="5" t="s">
-        <v>5212</v>
+        <v>5214</v>
       </c>
       <c r="P1052" s="6" t="s">
-        <v>5213</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="s">
-        <v>5214</v>
+        <v>5216</v>
       </c>
       <c r="E1053" s="0" t="s">
-        <v>5215</v>
+        <v>5217</v>
       </c>
       <c r="M1053" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1053" s="0" t="s">
-        <v>5216</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>5217</v>
+        <v>5219</v>
       </c>
       <c r="E1054" s="0" t="s">
-        <v>5218</v>
+        <v>5220</v>
       </c>
       <c r="M1054" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1054" s="0" t="s">
-        <v>5219</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="s">
-        <v>5220</v>
+        <v>5222</v>
       </c>
       <c r="E1055" s="0" t="s">
-        <v>5221</v>
+        <v>5223</v>
       </c>
       <c r="M1055" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1055" s="0" t="s">
-        <v>5222</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="0" t="s">
-        <v>5223</v>
+        <v>5225</v>
       </c>
       <c r="E1056" s="0" t="s">
-        <v>5224</v>
+        <v>5226</v>
       </c>
       <c r="M1056" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1056" s="0" t="s">
-        <v>5225</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>5226</v>
+        <v>5228</v>
       </c>
       <c r="E1057" s="0" t="s">
-        <v>5227</v>
+        <v>5229</v>
       </c>
       <c r="M1057" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1057" s="0" t="s">
-        <v>5228</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>5229</v>
+        <v>5231</v>
       </c>
       <c r="E1058" s="0" t="s">
-        <v>5230</v>
+        <v>5232</v>
       </c>
       <c r="M1058" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1058" s="0" t="s">
-        <v>5231</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>5232</v>
+        <v>5234</v>
       </c>
       <c r="E1059" s="0" t="s">
-        <v>5233</v>
+        <v>5235</v>
       </c>
       <c r="M1059" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1059" s="0" t="s">
-        <v>5234</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>5235</v>
+        <v>5237</v>
       </c>
       <c r="B1060" s="0" t="s">
-        <v>5236</v>
+        <v>5238</v>
       </c>
       <c r="E1060" s="0" t="s">
         <v>2811</v>
@@ -42422,7 +42509,7 @@
         <v>0</v>
       </c>
       <c r="N1060" s="0" t="s">
-        <v>5237</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42430,177 +42517,292 @@
         <v>3492</v>
       </c>
       <c r="E1061" s="0" t="s">
-        <v>5238</v>
+        <v>5240</v>
       </c>
       <c r="M1061" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1061" s="0" t="s">
-        <v>5239</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>5240</v>
+        <v>5242</v>
       </c>
       <c r="E1062" s="0" t="s">
-        <v>5241</v>
+        <v>5243</v>
       </c>
       <c r="M1062" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1062" s="0" t="s">
-        <v>5242</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>5243</v>
+        <v>5245</v>
       </c>
       <c r="E1063" s="0" t="s">
-        <v>5244</v>
+        <v>5246</v>
       </c>
       <c r="M1063" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1063" s="0" t="s">
-        <v>5245</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>5246</v>
+        <v>5248</v>
       </c>
       <c r="D1064" s="0" t="s">
-        <v>5247</v>
+        <v>5249</v>
       </c>
       <c r="F1064" s="0" t="s">
-        <v>5248</v>
+        <v>5250</v>
       </c>
       <c r="M1064" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1064" s="0" t="s">
-        <v>5249</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>5250</v>
+        <v>5252</v>
       </c>
       <c r="E1065" s="0" t="s">
-        <v>5251</v>
+        <v>5253</v>
       </c>
       <c r="M1065" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1065" s="0" t="s">
-        <v>5252</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>5253</v>
+        <v>5255</v>
       </c>
       <c r="D1066" s="0" t="s">
-        <v>5254</v>
+        <v>5256</v>
       </c>
       <c r="F1066" s="0" t="s">
-        <v>5255</v>
+        <v>5257</v>
       </c>
       <c r="M1066" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1066" s="0" t="s">
-        <v>5256</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>5257</v>
+        <v>5259</v>
       </c>
       <c r="B1067" s="0" t="s">
-        <v>5258</v>
+        <v>5260</v>
       </c>
       <c r="E1067" s="0" t="s">
-        <v>5259</v>
+        <v>5261</v>
       </c>
       <c r="F1067" s="0" t="s">
-        <v>5260</v>
+        <v>5262</v>
       </c>
       <c r="G1067" s="0" t="s">
-        <v>5261</v>
+        <v>5263</v>
       </c>
       <c r="M1067" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1067" s="0" t="s">
-        <v>5262</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>5263</v>
+        <v>5265</v>
       </c>
       <c r="D1068" s="0" t="s">
-        <v>5264</v>
+        <v>5266</v>
       </c>
       <c r="E1068" s="0" t="s">
-        <v>5265</v>
+        <v>5267</v>
       </c>
       <c r="F1068" s="0" t="s">
-        <v>5266</v>
+        <v>5268</v>
       </c>
       <c r="M1068" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1068" s="0" t="s">
-        <v>5267</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>5268</v>
+        <v>5270</v>
       </c>
       <c r="D1069" s="0" t="s">
-        <v>5269</v>
+        <v>5271</v>
       </c>
       <c r="E1069" s="0" t="s">
-        <v>5270</v>
+        <v>5272</v>
       </c>
       <c r="F1069" s="0" t="s">
-        <v>5271</v>
+        <v>5273</v>
       </c>
       <c r="M1069" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1069" s="0" t="s">
-        <v>5272</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>5273</v>
+        <v>5275</v>
       </c>
       <c r="D1070" s="0" t="s">
-        <v>5274</v>
+        <v>5276</v>
       </c>
       <c r="E1070" s="0" t="s">
-        <v>5275</v>
+        <v>5277</v>
       </c>
       <c r="M1070" s="0" t="s">
         <v>0</v>
       </c>
       <c r="N1070" s="0" t="s">
-        <v>5276</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="0" t="s">
-        <v>5277</v>
+      <c r="D1071" s="0" t="s">
+        <v>5279</v>
       </c>
       <c r="E1071" s="0" t="s">
-        <v>5278</v>
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1072" s="0" t="s">
+        <v>5281</v>
+      </c>
+      <c r="E1072" s="0" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1073" s="0" t="s">
+        <v>5283</v>
+      </c>
+      <c r="E1073" s="0" t="s">
+        <v>5284</v>
+      </c>
+      <c r="F1073" s="0" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1074" s="0" t="s">
+        <v>5286</v>
+      </c>
+      <c r="E1074" s="0" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1075" s="0" t="s">
+        <v>5288</v>
+      </c>
+      <c r="E1075" s="0" t="s">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1076" s="0" t="s">
+        <v>5290</v>
+      </c>
+      <c r="E1076" s="0" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1077" s="0" t="s">
+        <v>5291</v>
+      </c>
+      <c r="E1077" s="0" t="s">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1078" s="0" t="s">
+        <v>5293</v>
+      </c>
+      <c r="E1078" s="0" t="s">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1079" s="0" t="s">
+        <v>5295</v>
+      </c>
+      <c r="E1079" s="0" t="s">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="0" t="s">
+        <v>5297</v>
+      </c>
+      <c r="E1080" s="0" t="s">
+        <v>5298</v>
+      </c>
+      <c r="F1080" s="0" t="s">
+        <v>5299</v>
+      </c>
+      <c r="M1080" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1080" s="0" t="s">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="0" t="s">
+        <v>5301</v>
+      </c>
+      <c r="C1081" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1081" s="0" t="s">
+        <v>5302</v>
+      </c>
+      <c r="M1081" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1081" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="0" t="s">
+        <v>5303</v>
+      </c>
+      <c r="G1082" s="0" t="s">
+        <v>5304</v>
+      </c>
+      <c r="M1082" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1082" s="0" t="s">
+        <v>5305</v>
       </c>
     </row>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -7197,7 +7197,7 @@
     <t xml:space="preserve">lower</t>
   </si>
   <si>
-    <t xml:space="preserve">low/(colloquially) inferior/(slang) sad</t>
+    <t xml:space="preserve">low/(colloquially) inferior</t>
   </si>
   <si>
     <t xml:space="preserve">down</t>
@@ -16641,8 +16641,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A865" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G893" activeCellId="0" sqref="G893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27982,7 +27982,7 @@
         <v>2375</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>534</v>
+        <v>23</v>
       </c>
       <c r="E462" s="0" t="s">
         <v>2376</v>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7836" uniqueCount="5341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7851" uniqueCount="5352">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -16187,6 +16187,39 @@
   </si>
   <si>
     <t xml:space="preserve">oros xok or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xarot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movie/film/video/vid/clip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coloccitro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/tɕɔlotɕːit̪ɹo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xarotik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clip/short/vid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xarot ik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xonxiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentation/slideshow/powerpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xon xiy</t>
   </si>
 </sst>
 </file>
@@ -16641,8 +16674,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A865" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G893" activeCellId="0" sqref="G893"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1057" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1088" activeCellId="0" sqref="D1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42993,6 +43026,57 @@
       </c>
       <c r="N1081" s="0" t="s">
         <v>5340</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="0" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C1082" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1082" s="0" t="s">
+        <v>5342</v>
+      </c>
+      <c r="M1082" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1082" s="5" t="s">
+        <v>5343</v>
+      </c>
+      <c r="O1082" s="6" t="s">
+        <v>5344</v>
+      </c>
+      <c r="P1082" s="6" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="0" t="s">
+        <v>5346</v>
+      </c>
+      <c r="E1083" s="0" t="s">
+        <v>5347</v>
+      </c>
+      <c r="M1083" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1083" s="0" t="s">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="0" t="s">
+        <v>5349</v>
+      </c>
+      <c r="E1084" s="0" t="s">
+        <v>5350</v>
+      </c>
+      <c r="M1084" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1084" s="0" t="s">
+        <v>5351</v>
       </c>
     </row>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -4237,7 +4237,7 @@
     <t xml:space="preserve">ko</t>
   </si>
   <si>
-    <t xml:space="preserve">indicates a direct object</t>
+    <t xml:space="preserve">indicates the avatar of the sentence </t>
   </si>
   <si>
     <t xml:space="preserve">koay</t>
@@ -4918,7 +4918,7 @@
     <t xml:space="preserve">ma</t>
   </si>
   <si>
-    <t xml:space="preserve">particle to indicate subject of a sentence</t>
+    <t xml:space="preserve">particle to indicate the agent of a sentence</t>
   </si>
   <si>
     <t xml:space="preserve">mahar</t>
@@ -12905,7 +12905,7 @@
     <t xml:space="preserve">tu</t>
   </si>
   <si>
-    <t xml:space="preserve">indicates an indirect object</t>
+    <t xml:space="preserve">indicates the beneficiary of the sentence</t>
   </si>
   <si>
     <t xml:space="preserve">to/on/for/from/with</t>
@@ -15328,7 +15328,7 @@
     <t xml:space="preserve">/sz̩⁵⁵ ʈ͡ʂʰoʊ̯³⁵/</t>
   </si>
   <si>
-    <t xml:space="preserve">exclamation of surprise or alarm</t>
+    <t xml:space="preserve">stand in noun or exclamation of surprise or alarm</t>
   </si>
   <si>
     <t xml:space="preserve">peran</t>
@@ -16674,8 +16674,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1057" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1088" activeCellId="0" sqref="D1088"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A830" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G851" activeCellId="0" sqref="G851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
